--- a/特征点检验结果.xlsx
+++ b/特征点检验结果.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="100m" sheetId="1" r:id="rId1"/>
+    <sheet name="100m-normal beat" sheetId="1" r:id="rId1"/>
+    <sheet name="106m-V" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>10s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +74,26 @@
   </si>
   <si>
     <t>20s为间隔采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32867-36466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36757-40356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40714-44313</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:BX20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -446,8 +467,14 @@
       <c r="AY1" t="s">
         <v>8</v>
       </c>
+      <c r="BL1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -598,8 +625,83 @@
       <c r="AY2">
         <v>3322</v>
       </c>
+      <c r="AZ2">
+        <v>14</v>
+      </c>
+      <c r="BA2">
+        <v>302</v>
+      </c>
+      <c r="BB2">
+        <v>603</v>
+      </c>
+      <c r="BC2">
+        <v>901</v>
+      </c>
+      <c r="BD2">
+        <v>1198</v>
+      </c>
+      <c r="BE2">
+        <v>1491</v>
+      </c>
+      <c r="BF2">
+        <v>1773</v>
+      </c>
+      <c r="BG2">
+        <v>2055</v>
+      </c>
+      <c r="BH2">
+        <v>2347</v>
+      </c>
+      <c r="BI2">
+        <v>2649</v>
+      </c>
+      <c r="BJ2">
+        <v>2949</v>
+      </c>
+      <c r="BK2">
+        <v>3246</v>
+      </c>
+      <c r="BL2">
+        <v>3539</v>
+      </c>
+      <c r="BM2">
+        <v>216</v>
+      </c>
+      <c r="BN2">
+        <v>505</v>
+      </c>
+      <c r="BO2">
+        <v>785</v>
+      </c>
+      <c r="BP2">
+        <v>1072</v>
+      </c>
+      <c r="BQ2">
+        <v>1379</v>
+      </c>
+      <c r="BR2">
+        <v>1683</v>
+      </c>
+      <c r="BS2">
+        <v>1981</v>
+      </c>
+      <c r="BT2">
+        <v>2263</v>
+      </c>
+      <c r="BU2">
+        <v>2546</v>
+      </c>
+      <c r="BV2">
+        <v>2830</v>
+      </c>
+      <c r="BW2">
+        <v>3122</v>
+      </c>
+      <c r="BX2">
+        <v>3414</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -750,8 +852,83 @@
       <c r="AY3">
         <v>3322</v>
       </c>
+      <c r="AZ3">
+        <v>14</v>
+      </c>
+      <c r="BA3">
+        <v>302</v>
+      </c>
+      <c r="BB3">
+        <v>603</v>
+      </c>
+      <c r="BC3">
+        <v>901</v>
+      </c>
+      <c r="BD3">
+        <v>1198</v>
+      </c>
+      <c r="BE3">
+        <v>1491</v>
+      </c>
+      <c r="BF3">
+        <v>1773</v>
+      </c>
+      <c r="BG3">
+        <v>2055</v>
+      </c>
+      <c r="BH3">
+        <v>2347</v>
+      </c>
+      <c r="BI3">
+        <v>2649</v>
+      </c>
+      <c r="BJ3">
+        <v>2949</v>
+      </c>
+      <c r="BK3">
+        <v>3246</v>
+      </c>
+      <c r="BL3">
+        <v>3539</v>
+      </c>
+      <c r="BM3">
+        <v>216</v>
+      </c>
+      <c r="BN3">
+        <v>505</v>
+      </c>
+      <c r="BO3">
+        <v>785</v>
+      </c>
+      <c r="BP3">
+        <v>1072</v>
+      </c>
+      <c r="BQ3">
+        <v>1379</v>
+      </c>
+      <c r="BR3">
+        <v>1683</v>
+      </c>
+      <c r="BS3">
+        <v>1981</v>
+      </c>
+      <c r="BT3">
+        <v>2263</v>
+      </c>
+      <c r="BU3">
+        <v>2546</v>
+      </c>
+      <c r="BV3">
+        <v>2830</v>
+      </c>
+      <c r="BW3">
+        <v>3122</v>
+      </c>
+      <c r="BX3">
+        <v>3414</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -902,8 +1079,83 @@
       <c r="AY4">
         <v>3311</v>
       </c>
+      <c r="AZ4">
+        <v>4</v>
+      </c>
+      <c r="BA4">
+        <v>291</v>
+      </c>
+      <c r="BB4">
+        <v>586</v>
+      </c>
+      <c r="BC4">
+        <v>886</v>
+      </c>
+      <c r="BD4">
+        <v>1186</v>
+      </c>
+      <c r="BE4">
+        <v>1483</v>
+      </c>
+      <c r="BF4">
+        <v>1765</v>
+      </c>
+      <c r="BG4">
+        <v>2044</v>
+      </c>
+      <c r="BH4">
+        <v>2339</v>
+      </c>
+      <c r="BI4">
+        <v>2634</v>
+      </c>
+      <c r="BJ4">
+        <v>2941</v>
+      </c>
+      <c r="BK4">
+        <v>3234</v>
+      </c>
+      <c r="BL4">
+        <v>3530</v>
+      </c>
+      <c r="BM4">
+        <v>213</v>
+      </c>
+      <c r="BN4">
+        <v>498</v>
+      </c>
+      <c r="BO4">
+        <v>781</v>
+      </c>
+      <c r="BP4">
+        <v>1058</v>
+      </c>
+      <c r="BQ4">
+        <v>1367</v>
+      </c>
+      <c r="BR4">
+        <v>1670</v>
+      </c>
+      <c r="BS4">
+        <v>1972</v>
+      </c>
+      <c r="BT4">
+        <v>2255</v>
+      </c>
+      <c r="BU4">
+        <v>2534</v>
+      </c>
+      <c r="BV4">
+        <v>2825</v>
+      </c>
+      <c r="BW4">
+        <v>3115</v>
+      </c>
+      <c r="BX4">
+        <v>3402</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1054,8 +1306,83 @@
       <c r="AY5">
         <v>3338</v>
       </c>
+      <c r="AZ5">
+        <v>30</v>
+      </c>
+      <c r="BA5">
+        <v>318</v>
+      </c>
+      <c r="BB5">
+        <v>618</v>
+      </c>
+      <c r="BC5">
+        <v>918</v>
+      </c>
+      <c r="BD5">
+        <v>1216</v>
+      </c>
+      <c r="BE5">
+        <v>1508</v>
+      </c>
+      <c r="BF5">
+        <v>1795</v>
+      </c>
+      <c r="BG5">
+        <v>2073</v>
+      </c>
+      <c r="BH5">
+        <v>2363</v>
+      </c>
+      <c r="BI5">
+        <v>2665</v>
+      </c>
+      <c r="BJ5">
+        <v>2966</v>
+      </c>
+      <c r="BK5">
+        <v>3268</v>
+      </c>
+      <c r="BL5">
+        <v>3554</v>
+      </c>
+      <c r="BM5">
+        <v>235</v>
+      </c>
+      <c r="BN5">
+        <v>521</v>
+      </c>
+      <c r="BO5">
+        <v>804</v>
+      </c>
+      <c r="BP5">
+        <v>1088</v>
+      </c>
+      <c r="BQ5">
+        <v>1396</v>
+      </c>
+      <c r="BR5">
+        <v>1701</v>
+      </c>
+      <c r="BS5">
+        <v>1996</v>
+      </c>
+      <c r="BT5">
+        <v>2279</v>
+      </c>
+      <c r="BU5">
+        <v>2561</v>
+      </c>
+      <c r="BV5">
+        <v>2845</v>
+      </c>
+      <c r="BW5">
+        <v>3140</v>
+      </c>
+      <c r="BX5">
+        <v>3433</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1206,8 +1533,83 @@
       <c r="AY6">
         <v>3338</v>
       </c>
+      <c r="AZ6">
+        <v>30</v>
+      </c>
+      <c r="BA6">
+        <v>318</v>
+      </c>
+      <c r="BB6">
+        <v>618</v>
+      </c>
+      <c r="BC6">
+        <v>918</v>
+      </c>
+      <c r="BD6">
+        <v>1216</v>
+      </c>
+      <c r="BE6">
+        <v>1508</v>
+      </c>
+      <c r="BF6">
+        <v>1795</v>
+      </c>
+      <c r="BG6">
+        <v>2073</v>
+      </c>
+      <c r="BH6">
+        <v>2363</v>
+      </c>
+      <c r="BI6">
+        <v>2665</v>
+      </c>
+      <c r="BJ6">
+        <v>2966</v>
+      </c>
+      <c r="BK6">
+        <v>3268</v>
+      </c>
+      <c r="BL6">
+        <v>3554</v>
+      </c>
+      <c r="BM6">
+        <v>235</v>
+      </c>
+      <c r="BN6">
+        <v>521</v>
+      </c>
+      <c r="BO6">
+        <v>804</v>
+      </c>
+      <c r="BP6">
+        <v>1088</v>
+      </c>
+      <c r="BQ6">
+        <v>1396</v>
+      </c>
+      <c r="BR6">
+        <v>1701</v>
+      </c>
+      <c r="BS6">
+        <v>1996</v>
+      </c>
+      <c r="BT6">
+        <v>2279</v>
+      </c>
+      <c r="BU6">
+        <v>2561</v>
+      </c>
+      <c r="BV6">
+        <v>2845</v>
+      </c>
+      <c r="BW6">
+        <v>3140</v>
+      </c>
+      <c r="BX6">
+        <v>3433</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1358,8 +1760,83 @@
       <c r="AY7">
         <v>3345</v>
       </c>
+      <c r="AZ7">
+        <v>38</v>
+      </c>
+      <c r="BA7">
+        <v>326</v>
+      </c>
+      <c r="BB7">
+        <v>626</v>
+      </c>
+      <c r="BC7">
+        <v>926</v>
+      </c>
+      <c r="BD7">
+        <v>1225</v>
+      </c>
+      <c r="BE7">
+        <v>1517</v>
+      </c>
+      <c r="BF7">
+        <v>1805</v>
+      </c>
+      <c r="BG7">
+        <v>2081</v>
+      </c>
+      <c r="BH7">
+        <v>2372</v>
+      </c>
+      <c r="BI7">
+        <v>2671</v>
+      </c>
+      <c r="BJ7">
+        <v>2971</v>
+      </c>
+      <c r="BK7">
+        <v>3276</v>
+      </c>
+      <c r="BL7">
+        <v>3562</v>
+      </c>
+      <c r="BM7">
+        <v>242</v>
+      </c>
+      <c r="BN7">
+        <v>527</v>
+      </c>
+      <c r="BO7">
+        <v>813</v>
+      </c>
+      <c r="BP7">
+        <v>1097</v>
+      </c>
+      <c r="BQ7">
+        <v>1405</v>
+      </c>
+      <c r="BR7">
+        <v>1707</v>
+      </c>
+      <c r="BS7">
+        <v>2004</v>
+      </c>
+      <c r="BT7">
+        <v>2289</v>
+      </c>
+      <c r="BU7">
+        <v>2567</v>
+      </c>
+      <c r="BV7">
+        <v>2851</v>
+      </c>
+      <c r="BW7">
+        <v>3149</v>
+      </c>
+      <c r="BX7">
+        <v>3442</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1510,8 +1987,83 @@
       <c r="AY8">
         <v>3332</v>
       </c>
+      <c r="AZ8">
+        <v>24</v>
+      </c>
+      <c r="BA8">
+        <v>312</v>
+      </c>
+      <c r="BB8">
+        <v>613</v>
+      </c>
+      <c r="BC8">
+        <v>911</v>
+      </c>
+      <c r="BD8">
+        <v>1208</v>
+      </c>
+      <c r="BE8">
+        <v>1501</v>
+      </c>
+      <c r="BF8">
+        <v>1784</v>
+      </c>
+      <c r="BG8">
+        <v>2066</v>
+      </c>
+      <c r="BH8">
+        <v>2356</v>
+      </c>
+      <c r="BI8">
+        <v>2659</v>
+      </c>
+      <c r="BJ8">
+        <v>2959</v>
+      </c>
+      <c r="BK8">
+        <v>3258</v>
+      </c>
+      <c r="BL8">
+        <v>3548</v>
+      </c>
+      <c r="BM8">
+        <v>228</v>
+      </c>
+      <c r="BN8">
+        <v>515</v>
+      </c>
+      <c r="BO8">
+        <v>797</v>
+      </c>
+      <c r="BP8">
+        <v>1082</v>
+      </c>
+      <c r="BQ8">
+        <v>1390</v>
+      </c>
+      <c r="BR8">
+        <v>1695</v>
+      </c>
+      <c r="BS8">
+        <v>1990</v>
+      </c>
+      <c r="BT8">
+        <v>2273</v>
+      </c>
+      <c r="BU8">
+        <v>2555</v>
+      </c>
+      <c r="BV8">
+        <v>2839</v>
+      </c>
+      <c r="BW8">
+        <v>3132</v>
+      </c>
+      <c r="BX8">
+        <v>3425</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -1662,8 +2214,83 @@
       <c r="AY9">
         <v>3332</v>
       </c>
+      <c r="AZ9">
+        <v>24</v>
+      </c>
+      <c r="BA9">
+        <v>312</v>
+      </c>
+      <c r="BB9">
+        <v>613</v>
+      </c>
+      <c r="BC9">
+        <v>911</v>
+      </c>
+      <c r="BD9">
+        <v>1208</v>
+      </c>
+      <c r="BE9">
+        <v>1501</v>
+      </c>
+      <c r="BF9">
+        <v>1784</v>
+      </c>
+      <c r="BG9">
+        <v>2066</v>
+      </c>
+      <c r="BH9">
+        <v>2356</v>
+      </c>
+      <c r="BI9">
+        <v>2659</v>
+      </c>
+      <c r="BJ9">
+        <v>2959</v>
+      </c>
+      <c r="BK9">
+        <v>3258</v>
+      </c>
+      <c r="BL9">
+        <v>3548</v>
+      </c>
+      <c r="BM9">
+        <v>228</v>
+      </c>
+      <c r="BN9">
+        <v>515</v>
+      </c>
+      <c r="BO9">
+        <v>797</v>
+      </c>
+      <c r="BP9">
+        <v>1082</v>
+      </c>
+      <c r="BQ9">
+        <v>1390</v>
+      </c>
+      <c r="BR9">
+        <v>1695</v>
+      </c>
+      <c r="BS9">
+        <v>1990</v>
+      </c>
+      <c r="BT9">
+        <v>2273</v>
+      </c>
+      <c r="BU9">
+        <v>2555</v>
+      </c>
+      <c r="BV9">
+        <v>2839</v>
+      </c>
+      <c r="BW9">
+        <v>3132</v>
+      </c>
+      <c r="BX9">
+        <v>3425</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1814,33 +2441,108 @@
       <c r="AY10">
         <v>3332</v>
       </c>
+      <c r="AZ10">
+        <v>24</v>
+      </c>
+      <c r="BA10">
+        <v>312</v>
+      </c>
+      <c r="BB10">
+        <v>612</v>
+      </c>
+      <c r="BC10">
+        <v>911</v>
+      </c>
+      <c r="BD10">
+        <v>1209</v>
+      </c>
+      <c r="BE10">
+        <v>1500</v>
+      </c>
+      <c r="BF10">
+        <v>1784</v>
+      </c>
+      <c r="BG10">
+        <v>2065</v>
+      </c>
+      <c r="BH10">
+        <v>2357</v>
+      </c>
+      <c r="BI10">
+        <v>2659</v>
+      </c>
+      <c r="BJ10">
+        <v>2959</v>
+      </c>
+      <c r="BK10">
+        <v>3258</v>
+      </c>
+      <c r="BL10">
+        <v>3548</v>
+      </c>
+      <c r="BM10">
+        <v>228</v>
+      </c>
+      <c r="BN10">
+        <v>515</v>
+      </c>
+      <c r="BO10">
+        <v>796</v>
+      </c>
+      <c r="BP10">
+        <v>1081</v>
+      </c>
+      <c r="BQ10">
+        <v>1389</v>
+      </c>
+      <c r="BR10">
+        <v>1694</v>
+      </c>
+      <c r="BS10">
+        <v>1990</v>
+      </c>
+      <c r="BT10">
+        <v>2273</v>
+      </c>
+      <c r="BU10">
+        <v>2555</v>
+      </c>
+      <c r="BV10">
+        <v>2839</v>
+      </c>
+      <c r="BW10">
+        <v>3132</v>
+      </c>
+      <c r="BX10">
+        <v>3424</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -1870,4 +2572,1051 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>148</v>
+      </c>
+      <c r="D2">
+        <v>602</v>
+      </c>
+      <c r="E2">
+        <v>752</v>
+      </c>
+      <c r="F2">
+        <v>928</v>
+      </c>
+      <c r="G2">
+        <v>1430</v>
+      </c>
+      <c r="H2">
+        <v>1791</v>
+      </c>
+      <c r="I2">
+        <v>1951</v>
+      </c>
+      <c r="J2">
+        <v>2406</v>
+      </c>
+      <c r="K2">
+        <v>2560</v>
+      </c>
+      <c r="L2">
+        <v>2746</v>
+      </c>
+      <c r="M2">
+        <v>3227</v>
+      </c>
+      <c r="N2">
+        <v>3383</v>
+      </c>
+      <c r="O2">
+        <v>158</v>
+      </c>
+      <c r="P2">
+        <v>337</v>
+      </c>
+      <c r="Q2">
+        <v>807</v>
+      </c>
+      <c r="R2">
+        <v>1139</v>
+      </c>
+      <c r="S2">
+        <v>1301</v>
+      </c>
+      <c r="T2">
+        <v>1481</v>
+      </c>
+      <c r="U2">
+        <v>1990</v>
+      </c>
+      <c r="V2">
+        <v>2152</v>
+      </c>
+      <c r="W2">
+        <v>2338</v>
+      </c>
+      <c r="X2">
+        <v>2825</v>
+      </c>
+      <c r="Y2">
+        <v>3138</v>
+      </c>
+      <c r="Z2">
+        <v>3298</v>
+      </c>
+      <c r="AA2">
+        <v>3475</v>
+      </c>
+      <c r="AB2">
+        <v>310</v>
+      </c>
+      <c r="AC2">
+        <v>469</v>
+      </c>
+      <c r="AD2">
+        <v>523</v>
+      </c>
+      <c r="AE2">
+        <v>1113</v>
+      </c>
+      <c r="AF2">
+        <v>1274</v>
+      </c>
+      <c r="AG2">
+        <v>1717</v>
+      </c>
+      <c r="AH2">
+        <v>1876</v>
+      </c>
+      <c r="AI2">
+        <v>2055</v>
+      </c>
+      <c r="AJ2">
+        <v>2553</v>
+      </c>
+      <c r="AK2">
+        <v>2717</v>
+      </c>
+      <c r="AL2">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>148</v>
+      </c>
+      <c r="D3">
+        <v>602</v>
+      </c>
+      <c r="E3">
+        <v>752</v>
+      </c>
+      <c r="F3">
+        <v>845</v>
+      </c>
+      <c r="G3">
+        <v>1430</v>
+      </c>
+      <c r="H3">
+        <v>1791</v>
+      </c>
+      <c r="I3">
+        <v>1951</v>
+      </c>
+      <c r="J3">
+        <v>2406</v>
+      </c>
+      <c r="K3">
+        <v>2568</v>
+      </c>
+      <c r="L3">
+        <v>2662</v>
+      </c>
+      <c r="M3">
+        <v>3227</v>
+      </c>
+      <c r="N3">
+        <v>3396</v>
+      </c>
+      <c r="O3">
+        <v>158</v>
+      </c>
+      <c r="P3">
+        <v>216</v>
+      </c>
+      <c r="Q3">
+        <v>807</v>
+      </c>
+      <c r="R3">
+        <v>1139</v>
+      </c>
+      <c r="S3">
+        <v>1301</v>
+      </c>
+      <c r="T3">
+        <v>1355</v>
+      </c>
+      <c r="U3">
+        <v>1990</v>
+      </c>
+      <c r="V3">
+        <v>2152</v>
+      </c>
+      <c r="W3">
+        <v>2338</v>
+      </c>
+      <c r="X3">
+        <v>2825</v>
+      </c>
+      <c r="Y3">
+        <v>3138</v>
+      </c>
+      <c r="Z3">
+        <v>3298</v>
+      </c>
+      <c r="AA3">
+        <v>3475</v>
+      </c>
+      <c r="AB3">
+        <v>310</v>
+      </c>
+      <c r="AC3">
+        <v>469</v>
+      </c>
+      <c r="AD3">
+        <v>523</v>
+      </c>
+      <c r="AE3">
+        <v>1113</v>
+      </c>
+      <c r="AF3">
+        <v>1274</v>
+      </c>
+      <c r="AG3">
+        <v>1717</v>
+      </c>
+      <c r="AH3">
+        <v>1876</v>
+      </c>
+      <c r="AI3">
+        <v>2055</v>
+      </c>
+      <c r="AJ3">
+        <v>2553</v>
+      </c>
+      <c r="AK3">
+        <v>2717</v>
+      </c>
+      <c r="AL3">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>144</v>
+      </c>
+      <c r="D4">
+        <v>597</v>
+      </c>
+      <c r="E4">
+        <v>769</v>
+      </c>
+      <c r="F4">
+        <v>901</v>
+      </c>
+      <c r="G4">
+        <v>1424</v>
+      </c>
+      <c r="H4">
+        <v>1787</v>
+      </c>
+      <c r="I4">
+        <v>1957</v>
+      </c>
+      <c r="J4">
+        <v>2399</v>
+      </c>
+      <c r="K4">
+        <v>2585</v>
+      </c>
+      <c r="L4">
+        <v>2717</v>
+      </c>
+      <c r="M4">
+        <v>3221</v>
+      </c>
+      <c r="N4">
+        <v>3409</v>
+      </c>
+      <c r="O4">
+        <v>174</v>
+      </c>
+      <c r="P4">
+        <v>280</v>
+      </c>
+      <c r="Q4">
+        <v>809</v>
+      </c>
+      <c r="R4">
+        <v>1141</v>
+      </c>
+      <c r="S4">
+        <v>1318</v>
+      </c>
+      <c r="T4">
+        <v>1425</v>
+      </c>
+      <c r="U4">
+        <v>1985</v>
+      </c>
+      <c r="V4">
+        <v>2146</v>
+      </c>
+      <c r="W4">
+        <v>2330</v>
+      </c>
+      <c r="X4">
+        <v>2821</v>
+      </c>
+      <c r="Y4">
+        <v>3133</v>
+      </c>
+      <c r="Z4">
+        <v>3312</v>
+      </c>
+      <c r="AA4">
+        <v>3449</v>
+      </c>
+      <c r="AB4">
+        <v>305</v>
+      </c>
+      <c r="AC4">
+        <v>481</v>
+      </c>
+      <c r="AD4">
+        <v>596</v>
+      </c>
+      <c r="AE4">
+        <v>1109</v>
+      </c>
+      <c r="AF4">
+        <v>1273</v>
+      </c>
+      <c r="AG4">
+        <v>1707</v>
+      </c>
+      <c r="AH4">
+        <v>1891</v>
+      </c>
+      <c r="AI4">
+        <v>2050</v>
+      </c>
+      <c r="AJ4">
+        <v>2550</v>
+      </c>
+      <c r="AK4">
+        <v>2725</v>
+      </c>
+      <c r="AL4">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>249</v>
+      </c>
+      <c r="D5">
+        <v>619</v>
+      </c>
+      <c r="E5">
+        <v>798</v>
+      </c>
+      <c r="F5">
+        <v>1037</v>
+      </c>
+      <c r="G5">
+        <v>1448</v>
+      </c>
+      <c r="H5">
+        <v>1808</v>
+      </c>
+      <c r="I5">
+        <v>2004</v>
+      </c>
+      <c r="J5">
+        <v>2423</v>
+      </c>
+      <c r="K5">
+        <v>2615</v>
+      </c>
+      <c r="L5">
+        <v>2845</v>
+      </c>
+      <c r="M5">
+        <v>3244</v>
+      </c>
+      <c r="N5">
+        <v>3437</v>
+      </c>
+      <c r="O5">
+        <v>216</v>
+      </c>
+      <c r="P5">
+        <v>441</v>
+      </c>
+      <c r="Q5">
+        <v>844</v>
+      </c>
+      <c r="R5">
+        <v>1169</v>
+      </c>
+      <c r="S5">
+        <v>1355</v>
+      </c>
+      <c r="T5">
+        <v>1588</v>
+      </c>
+      <c r="U5">
+        <v>2008</v>
+      </c>
+      <c r="V5">
+        <v>2196</v>
+      </c>
+      <c r="W5">
+        <v>2436</v>
+      </c>
+      <c r="X5">
+        <v>2843</v>
+      </c>
+      <c r="Y5">
+        <v>3155</v>
+      </c>
+      <c r="Z5">
+        <v>3343</v>
+      </c>
+      <c r="AA5">
+        <v>3570</v>
+      </c>
+      <c r="AB5">
+        <v>356</v>
+      </c>
+      <c r="AC5">
+        <v>523</v>
+      </c>
+      <c r="AD5">
+        <v>753</v>
+      </c>
+      <c r="AE5">
+        <v>1133</v>
+      </c>
+      <c r="AF5">
+        <v>1305</v>
+      </c>
+      <c r="AG5">
+        <v>1736</v>
+      </c>
+      <c r="AH5">
+        <v>1925</v>
+      </c>
+      <c r="AI5">
+        <v>2156</v>
+      </c>
+      <c r="AJ5">
+        <v>2572</v>
+      </c>
+      <c r="AK5">
+        <v>2760</v>
+      </c>
+      <c r="AL5">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>234</v>
+      </c>
+      <c r="D6">
+        <v>619</v>
+      </c>
+      <c r="E6">
+        <v>798</v>
+      </c>
+      <c r="F6">
+        <v>1026</v>
+      </c>
+      <c r="G6">
+        <v>1448</v>
+      </c>
+      <c r="H6">
+        <v>1808</v>
+      </c>
+      <c r="I6">
+        <v>2004</v>
+      </c>
+      <c r="J6">
+        <v>2423</v>
+      </c>
+      <c r="K6">
+        <v>2615</v>
+      </c>
+      <c r="L6">
+        <v>2802</v>
+      </c>
+      <c r="M6">
+        <v>3244</v>
+      </c>
+      <c r="N6">
+        <v>3437</v>
+      </c>
+      <c r="O6">
+        <v>216</v>
+      </c>
+      <c r="P6">
+        <v>428</v>
+      </c>
+      <c r="Q6">
+        <v>844</v>
+      </c>
+      <c r="R6">
+        <v>1169</v>
+      </c>
+      <c r="S6">
+        <v>1355</v>
+      </c>
+      <c r="T6">
+        <v>1588</v>
+      </c>
+      <c r="U6">
+        <v>2008</v>
+      </c>
+      <c r="V6">
+        <v>2196</v>
+      </c>
+      <c r="W6">
+        <v>2406</v>
+      </c>
+      <c r="X6">
+        <v>2843</v>
+      </c>
+      <c r="Y6">
+        <v>3155</v>
+      </c>
+      <c r="Z6">
+        <v>3343</v>
+      </c>
+      <c r="AA6">
+        <v>3565</v>
+      </c>
+      <c r="AB6">
+        <v>352</v>
+      </c>
+      <c r="AC6">
+        <v>523</v>
+      </c>
+      <c r="AD6">
+        <v>753</v>
+      </c>
+      <c r="AE6">
+        <v>1133</v>
+      </c>
+      <c r="AF6">
+        <v>1305</v>
+      </c>
+      <c r="AG6">
+        <v>1736</v>
+      </c>
+      <c r="AH6">
+        <v>1925</v>
+      </c>
+      <c r="AI6">
+        <v>2145</v>
+      </c>
+      <c r="AJ6">
+        <v>2572</v>
+      </c>
+      <c r="AK6">
+        <v>2760</v>
+      </c>
+      <c r="AL6">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>201</v>
+      </c>
+      <c r="D7">
+        <v>625</v>
+      </c>
+      <c r="E7">
+        <v>803</v>
+      </c>
+      <c r="F7">
+        <v>988</v>
+      </c>
+      <c r="G7">
+        <v>1455</v>
+      </c>
+      <c r="H7">
+        <v>1817</v>
+      </c>
+      <c r="I7">
+        <v>2012</v>
+      </c>
+      <c r="J7">
+        <v>2429</v>
+      </c>
+      <c r="K7">
+        <v>2619</v>
+      </c>
+      <c r="L7">
+        <v>2785</v>
+      </c>
+      <c r="M7">
+        <v>3253</v>
+      </c>
+      <c r="N7">
+        <v>3441</v>
+      </c>
+      <c r="O7">
+        <v>226</v>
+      </c>
+      <c r="P7">
+        <v>395</v>
+      </c>
+      <c r="Q7">
+        <v>839</v>
+      </c>
+      <c r="R7">
+        <v>1171</v>
+      </c>
+      <c r="S7">
+        <v>1355</v>
+      </c>
+      <c r="T7">
+        <v>1558</v>
+      </c>
+      <c r="U7">
+        <v>2015</v>
+      </c>
+      <c r="V7">
+        <v>2201</v>
+      </c>
+      <c r="W7">
+        <v>2387</v>
+      </c>
+      <c r="X7">
+        <v>2849</v>
+      </c>
+      <c r="Y7">
+        <v>3161</v>
+      </c>
+      <c r="Z7">
+        <v>3349</v>
+      </c>
+      <c r="AA7">
+        <v>3528</v>
+      </c>
+      <c r="AB7">
+        <v>335</v>
+      </c>
+      <c r="AC7">
+        <v>532</v>
+      </c>
+      <c r="AD7">
+        <v>747</v>
+      </c>
+      <c r="AE7">
+        <v>1140</v>
+      </c>
+      <c r="AF7">
+        <v>1312</v>
+      </c>
+      <c r="AG7">
+        <v>1744</v>
+      </c>
+      <c r="AH7">
+        <v>1935</v>
+      </c>
+      <c r="AI7">
+        <v>2111</v>
+      </c>
+      <c r="AJ7">
+        <v>2581</v>
+      </c>
+      <c r="AK7">
+        <v>2765</v>
+      </c>
+      <c r="AL7">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>176</v>
+      </c>
+      <c r="D8">
+        <v>611</v>
+      </c>
+      <c r="E8">
+        <v>788</v>
+      </c>
+      <c r="F8">
+        <v>954</v>
+      </c>
+      <c r="G8">
+        <v>1440</v>
+      </c>
+      <c r="H8">
+        <v>1801</v>
+      </c>
+      <c r="I8">
+        <v>1992</v>
+      </c>
+      <c r="J8">
+        <v>2415</v>
+      </c>
+      <c r="K8">
+        <v>2604</v>
+      </c>
+      <c r="L8">
+        <v>2771</v>
+      </c>
+      <c r="M8">
+        <v>3237</v>
+      </c>
+      <c r="N8">
+        <v>3424</v>
+      </c>
+      <c r="O8">
+        <v>196</v>
+      </c>
+      <c r="P8">
+        <v>368</v>
+      </c>
+      <c r="Q8">
+        <v>826</v>
+      </c>
+      <c r="R8">
+        <v>1158</v>
+      </c>
+      <c r="S8">
+        <v>1337</v>
+      </c>
+      <c r="T8">
+        <v>1511</v>
+      </c>
+      <c r="U8">
+        <v>2001</v>
+      </c>
+      <c r="V8">
+        <v>2183</v>
+      </c>
+      <c r="W8">
+        <v>2360</v>
+      </c>
+      <c r="X8">
+        <v>2836</v>
+      </c>
+      <c r="Y8">
+        <v>3148</v>
+      </c>
+      <c r="Z8">
+        <v>3330</v>
+      </c>
+      <c r="AA8">
+        <v>3499</v>
+      </c>
+      <c r="AB8">
+        <v>321</v>
+      </c>
+      <c r="AC8">
+        <v>510</v>
+      </c>
+      <c r="AD8">
+        <v>652</v>
+      </c>
+      <c r="AE8">
+        <v>1125</v>
+      </c>
+      <c r="AF8">
+        <v>1292</v>
+      </c>
+      <c r="AG8">
+        <v>1727</v>
+      </c>
+      <c r="AH8">
+        <v>1913</v>
+      </c>
+      <c r="AI8">
+        <v>2084</v>
+      </c>
+      <c r="AJ8">
+        <v>2563</v>
+      </c>
+      <c r="AK8">
+        <v>2748</v>
+      </c>
+      <c r="AL8">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>176</v>
+      </c>
+      <c r="D9">
+        <v>611</v>
+      </c>
+      <c r="E9">
+        <v>788</v>
+      </c>
+      <c r="F9">
+        <v>954</v>
+      </c>
+      <c r="G9">
+        <v>1440</v>
+      </c>
+      <c r="H9">
+        <v>1801</v>
+      </c>
+      <c r="I9">
+        <v>1992</v>
+      </c>
+      <c r="J9">
+        <v>2415</v>
+      </c>
+      <c r="K9">
+        <v>2604</v>
+      </c>
+      <c r="L9">
+        <v>2771</v>
+      </c>
+      <c r="M9">
+        <v>3237</v>
+      </c>
+      <c r="N9">
+        <v>3424</v>
+      </c>
+      <c r="O9">
+        <v>196</v>
+      </c>
+      <c r="P9">
+        <v>368</v>
+      </c>
+      <c r="Q9">
+        <v>826</v>
+      </c>
+      <c r="R9">
+        <v>1158</v>
+      </c>
+      <c r="S9">
+        <v>1337</v>
+      </c>
+      <c r="T9">
+        <v>1511</v>
+      </c>
+      <c r="U9">
+        <v>2001</v>
+      </c>
+      <c r="V9">
+        <v>2183</v>
+      </c>
+      <c r="W9">
+        <v>2360</v>
+      </c>
+      <c r="X9">
+        <v>2836</v>
+      </c>
+      <c r="Y9">
+        <v>3148</v>
+      </c>
+      <c r="Z9">
+        <v>3330</v>
+      </c>
+      <c r="AA9">
+        <v>3499</v>
+      </c>
+      <c r="AB9">
+        <v>321</v>
+      </c>
+      <c r="AC9">
+        <v>510</v>
+      </c>
+      <c r="AD9">
+        <v>682</v>
+      </c>
+      <c r="AE9">
+        <v>1125</v>
+      </c>
+      <c r="AF9">
+        <v>1292</v>
+      </c>
+      <c r="AG9">
+        <v>1727</v>
+      </c>
+      <c r="AH9">
+        <v>1913</v>
+      </c>
+      <c r="AI9">
+        <v>2084</v>
+      </c>
+      <c r="AJ9">
+        <v>2563</v>
+      </c>
+      <c r="AK9">
+        <v>2748</v>
+      </c>
+      <c r="AL9">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>611</v>
+      </c>
+      <c r="E10">
+        <v>786</v>
+      </c>
+      <c r="F10">
+        <v>957</v>
+      </c>
+      <c r="G10">
+        <v>1440</v>
+      </c>
+      <c r="H10">
+        <v>1801</v>
+      </c>
+      <c r="I10">
+        <v>1991</v>
+      </c>
+      <c r="J10">
+        <v>2416</v>
+      </c>
+      <c r="K10">
+        <v>2602</v>
+      </c>
+      <c r="L10">
+        <v>2772</v>
+      </c>
+      <c r="M10">
+        <v>3236</v>
+      </c>
+      <c r="N10">
+        <v>3422</v>
+      </c>
+      <c r="O10">
+        <v>194</v>
+      </c>
+      <c r="P10">
+        <v>369</v>
+      </c>
+      <c r="Q10">
+        <v>827</v>
+      </c>
+      <c r="R10">
+        <v>1158</v>
+      </c>
+      <c r="S10">
+        <v>1335</v>
+      </c>
+      <c r="T10">
+        <v>1512</v>
+      </c>
+      <c r="U10">
+        <v>2001</v>
+      </c>
+      <c r="V10">
+        <v>2181</v>
+      </c>
+      <c r="W10">
+        <v>2363</v>
+      </c>
+      <c r="X10">
+        <v>2835</v>
+      </c>
+      <c r="Y10">
+        <v>3148</v>
+      </c>
+      <c r="Z10">
+        <v>3328</v>
+      </c>
+      <c r="AA10">
+        <v>3499</v>
+      </c>
+      <c r="AB10">
+        <v>322</v>
+      </c>
+      <c r="AC10">
+        <v>508</v>
+      </c>
+      <c r="AD10">
+        <v>681</v>
+      </c>
+      <c r="AE10">
+        <v>1125</v>
+      </c>
+      <c r="AF10">
+        <v>1290</v>
+      </c>
+      <c r="AG10">
+        <v>1728</v>
+      </c>
+      <c r="AH10">
+        <v>1912</v>
+      </c>
+      <c r="AI10">
+        <v>2084</v>
+      </c>
+      <c r="AJ10">
+        <v>2564</v>
+      </c>
+      <c r="AK10">
+        <v>2745</v>
+      </c>
+      <c r="AL10">
+        <v>3194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/特征点检验结果.xlsx
+++ b/特征点检验结果.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="100m-normal beat" sheetId="1" r:id="rId1"/>
     <sheet name="106m-V" sheetId="2" r:id="rId2"/>
+    <sheet name="109m-L" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>10s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +95,22 @@
   </si>
   <si>
     <t>40714-44313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48225-51825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51850-55449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57495-61094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20s为间隔采样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2576,15 +2593,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:BT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2597,8 +2614,17 @@
       <c r="AL1" t="s">
         <v>19</v>
       </c>
+      <c r="AW1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -2710,8 +2736,110 @@
       <c r="AL2">
         <v>3179</v>
       </c>
+      <c r="AM2">
+        <v>144</v>
+      </c>
+      <c r="AN2">
+        <v>303</v>
+      </c>
+      <c r="AO2">
+        <v>777</v>
+      </c>
+      <c r="AP2">
+        <v>932</v>
+      </c>
+      <c r="AQ2">
+        <v>1123</v>
+      </c>
+      <c r="AR2">
+        <v>1601</v>
+      </c>
+      <c r="AS2">
+        <v>1760</v>
+      </c>
+      <c r="AT2">
+        <v>2189</v>
+      </c>
+      <c r="AU2">
+        <v>2513</v>
+      </c>
+      <c r="AV2">
+        <v>2979</v>
+      </c>
+      <c r="AW2">
+        <v>3144</v>
+      </c>
+      <c r="AX2">
+        <v>151</v>
+      </c>
+      <c r="AY2">
+        <v>329</v>
+      </c>
+      <c r="AZ2">
+        <v>795</v>
+      </c>
+      <c r="BA2">
+        <v>1000</v>
+      </c>
+      <c r="BB2">
+        <v>1412</v>
+      </c>
+      <c r="BC2">
+        <v>1717</v>
+      </c>
+      <c r="BD2">
+        <v>2000</v>
+      </c>
+      <c r="BE2">
+        <v>2190</v>
+      </c>
+      <c r="BF2">
+        <v>2371</v>
+      </c>
+      <c r="BG2">
+        <v>2850</v>
+      </c>
+      <c r="BH2">
+        <v>3008</v>
+      </c>
+      <c r="BI2">
+        <v>3158</v>
+      </c>
+      <c r="BJ2">
+        <v>160</v>
+      </c>
+      <c r="BK2">
+        <v>345</v>
+      </c>
+      <c r="BL2">
+        <v>830</v>
+      </c>
+      <c r="BM2">
+        <v>1000</v>
+      </c>
+      <c r="BN2">
+        <v>1443</v>
+      </c>
+      <c r="BO2">
+        <v>1646</v>
+      </c>
+      <c r="BP2">
+        <v>1695</v>
+      </c>
+      <c r="BQ2">
+        <v>2258</v>
+      </c>
+      <c r="BR2">
+        <v>2417</v>
+      </c>
+      <c r="BS2">
+        <v>2919</v>
+      </c>
+      <c r="BT2">
+        <v>3094</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2823,8 +2951,110 @@
       <c r="AL3">
         <v>3179</v>
       </c>
+      <c r="AM3">
+        <v>144</v>
+      </c>
+      <c r="AN3">
+        <v>303</v>
+      </c>
+      <c r="AO3">
+        <v>777</v>
+      </c>
+      <c r="AP3">
+        <v>932</v>
+      </c>
+      <c r="AQ3">
+        <v>1123</v>
+      </c>
+      <c r="AR3">
+        <v>1601</v>
+      </c>
+      <c r="AS3">
+        <v>1760</v>
+      </c>
+      <c r="AT3">
+        <v>2189</v>
+      </c>
+      <c r="AU3">
+        <v>2513</v>
+      </c>
+      <c r="AV3">
+        <v>2979</v>
+      </c>
+      <c r="AW3">
+        <v>3144</v>
+      </c>
+      <c r="AX3">
+        <v>151</v>
+      </c>
+      <c r="AY3">
+        <v>329</v>
+      </c>
+      <c r="AZ3">
+        <v>795</v>
+      </c>
+      <c r="BA3">
+        <v>1000</v>
+      </c>
+      <c r="BB3">
+        <v>1412</v>
+      </c>
+      <c r="BC3">
+        <v>1717</v>
+      </c>
+      <c r="BD3">
+        <v>2000</v>
+      </c>
+      <c r="BE3">
+        <v>2190</v>
+      </c>
+      <c r="BF3">
+        <v>2371</v>
+      </c>
+      <c r="BG3">
+        <v>2850</v>
+      </c>
+      <c r="BH3">
+        <v>3008</v>
+      </c>
+      <c r="BI3">
+        <v>3158</v>
+      </c>
+      <c r="BJ3">
+        <v>160</v>
+      </c>
+      <c r="BK3">
+        <v>345</v>
+      </c>
+      <c r="BL3">
+        <v>800</v>
+      </c>
+      <c r="BM3">
+        <v>1000</v>
+      </c>
+      <c r="BN3">
+        <v>1443</v>
+      </c>
+      <c r="BO3">
+        <v>1646</v>
+      </c>
+      <c r="BP3">
+        <v>1695</v>
+      </c>
+      <c r="BQ3">
+        <v>2258</v>
+      </c>
+      <c r="BR3">
+        <v>2417</v>
+      </c>
+      <c r="BS3">
+        <v>2919</v>
+      </c>
+      <c r="BT3">
+        <v>3094</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2936,8 +3166,110 @@
       <c r="AL4">
         <v>3182</v>
       </c>
+      <c r="AM4">
+        <v>160</v>
+      </c>
+      <c r="AN4">
+        <v>309</v>
+      </c>
+      <c r="AO4">
+        <v>773</v>
+      </c>
+      <c r="AP4">
+        <v>946</v>
+      </c>
+      <c r="AQ4">
+        <v>1120</v>
+      </c>
+      <c r="AR4">
+        <v>1593</v>
+      </c>
+      <c r="AS4">
+        <v>1771</v>
+      </c>
+      <c r="AT4">
+        <v>2185</v>
+      </c>
+      <c r="AU4">
+        <v>2510</v>
+      </c>
+      <c r="AV4">
+        <v>2973</v>
+      </c>
+      <c r="AW4">
+        <v>3158</v>
+      </c>
+      <c r="AX4">
+        <v>163</v>
+      </c>
+      <c r="AY4">
+        <v>313</v>
+      </c>
+      <c r="AZ4">
+        <v>802</v>
+      </c>
+      <c r="BA4">
+        <v>1045</v>
+      </c>
+      <c r="BB4">
+        <v>1410</v>
+      </c>
+      <c r="BC4">
+        <v>1711</v>
+      </c>
+      <c r="BD4">
+        <v>2009</v>
+      </c>
+      <c r="BE4">
+        <v>2202</v>
+      </c>
+      <c r="BF4">
+        <v>2350</v>
+      </c>
+      <c r="BG4">
+        <v>2854</v>
+      </c>
+      <c r="BH4">
+        <v>3017</v>
+      </c>
+      <c r="BI4">
+        <v>3171</v>
+      </c>
+      <c r="BJ4">
+        <v>163</v>
+      </c>
+      <c r="BK4">
+        <v>347</v>
+      </c>
+      <c r="BL4">
+        <v>826</v>
+      </c>
+      <c r="BM4">
+        <v>1004</v>
+      </c>
+      <c r="BN4">
+        <v>1471</v>
+      </c>
+      <c r="BO4">
+        <v>1654</v>
+      </c>
+      <c r="BP4">
+        <v>1756</v>
+      </c>
+      <c r="BQ4">
+        <v>2253</v>
+      </c>
+      <c r="BR4">
+        <v>2431</v>
+      </c>
+      <c r="BS4">
+        <v>2921</v>
+      </c>
+      <c r="BT4">
+        <v>3102</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -3049,8 +3381,110 @@
       <c r="AL5">
         <v>3223</v>
       </c>
+      <c r="AM5">
+        <v>190</v>
+      </c>
+      <c r="AN5">
+        <v>422</v>
+      </c>
+      <c r="AO5">
+        <v>794</v>
+      </c>
+      <c r="AP5">
+        <v>982</v>
+      </c>
+      <c r="AQ5">
+        <v>1227</v>
+      </c>
+      <c r="AR5">
+        <v>1621</v>
+      </c>
+      <c r="AS5">
+        <v>1811</v>
+      </c>
+      <c r="AT5">
+        <v>2220</v>
+      </c>
+      <c r="AU5">
+        <v>2618</v>
+      </c>
+      <c r="AV5">
+        <v>2997</v>
+      </c>
+      <c r="AW5">
+        <v>3190</v>
+      </c>
+      <c r="AX5">
+        <v>201</v>
+      </c>
+      <c r="AY5">
+        <v>435</v>
+      </c>
+      <c r="AZ5">
+        <v>840</v>
+      </c>
+      <c r="BA5">
+        <v>1099</v>
+      </c>
+      <c r="BB5">
+        <v>1466</v>
+      </c>
+      <c r="BC5">
+        <v>1766</v>
+      </c>
+      <c r="BD5">
+        <v>2057</v>
+      </c>
+      <c r="BE5">
+        <v>2240</v>
+      </c>
+      <c r="BF5">
+        <v>2486</v>
+      </c>
+      <c r="BG5">
+        <v>2896</v>
+      </c>
+      <c r="BH5">
+        <v>3078</v>
+      </c>
+      <c r="BI5">
+        <v>3284</v>
+      </c>
+      <c r="BJ5">
+        <v>207</v>
+      </c>
+      <c r="BK5">
+        <v>462</v>
+      </c>
+      <c r="BL5">
+        <v>880</v>
+      </c>
+      <c r="BM5">
+        <v>1119</v>
+      </c>
+      <c r="BN5">
+        <v>1532</v>
+      </c>
+      <c r="BO5">
+        <v>1695</v>
+      </c>
+      <c r="BP5">
+        <v>1908</v>
+      </c>
+      <c r="BQ5">
+        <v>2305</v>
+      </c>
+      <c r="BR5">
+        <v>2538</v>
+      </c>
+      <c r="BS5">
+        <v>2969</v>
+      </c>
+      <c r="BT5">
+        <v>3217</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -3162,8 +3596,110 @@
       <c r="AL6">
         <v>3223</v>
       </c>
+      <c r="AM6">
+        <v>190</v>
+      </c>
+      <c r="AN6">
+        <v>404</v>
+      </c>
+      <c r="AO6">
+        <v>794</v>
+      </c>
+      <c r="AP6">
+        <v>982</v>
+      </c>
+      <c r="AQ6">
+        <v>1197</v>
+      </c>
+      <c r="AR6">
+        <v>1621</v>
+      </c>
+      <c r="AS6">
+        <v>1811</v>
+      </c>
+      <c r="AT6">
+        <v>2220</v>
+      </c>
+      <c r="AU6">
+        <v>2618</v>
+      </c>
+      <c r="AV6">
+        <v>2997</v>
+      </c>
+      <c r="AW6">
+        <v>3190</v>
+      </c>
+      <c r="AX6">
+        <v>201</v>
+      </c>
+      <c r="AY6">
+        <v>406</v>
+      </c>
+      <c r="AZ6">
+        <v>840</v>
+      </c>
+      <c r="BA6">
+        <v>1099</v>
+      </c>
+      <c r="BB6">
+        <v>1464</v>
+      </c>
+      <c r="BC6">
+        <v>1760</v>
+      </c>
+      <c r="BD6">
+        <v>2057</v>
+      </c>
+      <c r="BE6">
+        <v>2240</v>
+      </c>
+      <c r="BF6">
+        <v>2486</v>
+      </c>
+      <c r="BG6">
+        <v>2896</v>
+      </c>
+      <c r="BH6">
+        <v>3078</v>
+      </c>
+      <c r="BI6">
+        <v>3284</v>
+      </c>
+      <c r="BJ6">
+        <v>207</v>
+      </c>
+      <c r="BK6">
+        <v>441</v>
+      </c>
+      <c r="BL6">
+        <v>880</v>
+      </c>
+      <c r="BM6">
+        <v>1089</v>
+      </c>
+      <c r="BN6">
+        <v>1532</v>
+      </c>
+      <c r="BO6">
+        <v>1695</v>
+      </c>
+      <c r="BP6">
+        <v>1908</v>
+      </c>
+      <c r="BQ6">
+        <v>2305</v>
+      </c>
+      <c r="BR6">
+        <v>2517</v>
+      </c>
+      <c r="BS6">
+        <v>2969</v>
+      </c>
+      <c r="BT6">
+        <v>3217</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -3275,8 +3811,110 @@
       <c r="AL7">
         <v>3207</v>
       </c>
+      <c r="AM7">
+        <v>195</v>
+      </c>
+      <c r="AN7">
+        <v>371</v>
+      </c>
+      <c r="AO7">
+        <v>801</v>
+      </c>
+      <c r="AP7">
+        <v>988</v>
+      </c>
+      <c r="AQ7">
+        <v>1175</v>
+      </c>
+      <c r="AR7">
+        <v>1628</v>
+      </c>
+      <c r="AS7">
+        <v>1816</v>
+      </c>
+      <c r="AT7">
+        <v>2215</v>
+      </c>
+      <c r="AU7">
+        <v>2590</v>
+      </c>
+      <c r="AV7">
+        <v>3004</v>
+      </c>
+      <c r="AW7">
+        <v>3194</v>
+      </c>
+      <c r="AX7">
+        <v>208</v>
+      </c>
+      <c r="AY7">
+        <v>387</v>
+      </c>
+      <c r="AZ7">
+        <v>827</v>
+      </c>
+      <c r="BA7">
+        <v>1099</v>
+      </c>
+      <c r="BB7">
+        <v>1444</v>
+      </c>
+      <c r="BC7">
+        <v>1743</v>
+      </c>
+      <c r="BD7">
+        <v>2041</v>
+      </c>
+      <c r="BE7">
+        <v>2248</v>
+      </c>
+      <c r="BF7">
+        <v>2473</v>
+      </c>
+      <c r="BG7">
+        <v>2884</v>
+      </c>
+      <c r="BH7">
+        <v>3061</v>
+      </c>
+      <c r="BI7">
+        <v>3282</v>
+      </c>
+      <c r="BJ7">
+        <v>211</v>
+      </c>
+      <c r="BK7">
+        <v>407</v>
+      </c>
+      <c r="BL7">
+        <v>868</v>
+      </c>
+      <c r="BM7">
+        <v>1061</v>
+      </c>
+      <c r="BN7">
+        <v>1520</v>
+      </c>
+      <c r="BO7">
+        <v>1696</v>
+      </c>
+      <c r="BP7">
+        <v>1889</v>
+      </c>
+      <c r="BQ7">
+        <v>2291</v>
+      </c>
+      <c r="BR7">
+        <v>2484</v>
+      </c>
+      <c r="BS7">
+        <v>2956</v>
+      </c>
+      <c r="BT7">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -3388,8 +4026,110 @@
       <c r="AL8">
         <v>3194</v>
       </c>
+      <c r="AM8">
+        <v>179</v>
+      </c>
+      <c r="AN8">
+        <v>344</v>
+      </c>
+      <c r="AO8">
+        <v>786</v>
+      </c>
+      <c r="AP8">
+        <v>968</v>
+      </c>
+      <c r="AQ8">
+        <v>1150</v>
+      </c>
+      <c r="AR8">
+        <v>1613</v>
+      </c>
+      <c r="AS8">
+        <v>1800</v>
+      </c>
+      <c r="AT8">
+        <v>2202</v>
+      </c>
+      <c r="AU8">
+        <v>2550</v>
+      </c>
+      <c r="AV8">
+        <v>2989</v>
+      </c>
+      <c r="AW8">
+        <v>3177</v>
+      </c>
+      <c r="AX8">
+        <v>189</v>
+      </c>
+      <c r="AY8">
+        <v>362</v>
+      </c>
+      <c r="AZ8">
+        <v>814</v>
+      </c>
+      <c r="BA8">
+        <v>1084</v>
+      </c>
+      <c r="BB8">
+        <v>1428</v>
+      </c>
+      <c r="BC8">
+        <v>1730</v>
+      </c>
+      <c r="BD8">
+        <v>2026</v>
+      </c>
+      <c r="BE8">
+        <v>2225</v>
+      </c>
+      <c r="BF8">
+        <v>2405</v>
+      </c>
+      <c r="BG8">
+        <v>2868</v>
+      </c>
+      <c r="BH8">
+        <v>3040</v>
+      </c>
+      <c r="BI8">
+        <v>3214</v>
+      </c>
+      <c r="BJ8">
+        <v>191</v>
+      </c>
+      <c r="BK8">
+        <v>381</v>
+      </c>
+      <c r="BL8">
+        <v>852</v>
+      </c>
+      <c r="BM8">
+        <v>1041</v>
+      </c>
+      <c r="BN8">
+        <v>1499</v>
+      </c>
+      <c r="BO8">
+        <v>1677</v>
+      </c>
+      <c r="BP8">
+        <v>1838</v>
+      </c>
+      <c r="BQ8">
+        <v>2277</v>
+      </c>
+      <c r="BR8">
+        <v>2461</v>
+      </c>
+      <c r="BS8">
+        <v>2939</v>
+      </c>
+      <c r="BT8">
+        <v>3142</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3501,8 +4241,110 @@
       <c r="AL9">
         <v>3194</v>
       </c>
+      <c r="AM9">
+        <v>179</v>
+      </c>
+      <c r="AN9">
+        <v>344</v>
+      </c>
+      <c r="AO9">
+        <v>786</v>
+      </c>
+      <c r="AP9">
+        <v>968</v>
+      </c>
+      <c r="AQ9">
+        <v>1150</v>
+      </c>
+      <c r="AR9">
+        <v>1613</v>
+      </c>
+      <c r="AS9">
+        <v>1800</v>
+      </c>
+      <c r="AT9">
+        <v>2202</v>
+      </c>
+      <c r="AU9">
+        <v>2550</v>
+      </c>
+      <c r="AV9">
+        <v>2989</v>
+      </c>
+      <c r="AW9">
+        <v>3177</v>
+      </c>
+      <c r="AX9">
+        <v>189</v>
+      </c>
+      <c r="AY9">
+        <v>362</v>
+      </c>
+      <c r="AZ9">
+        <v>814</v>
+      </c>
+      <c r="BA9">
+        <v>1084</v>
+      </c>
+      <c r="BB9">
+        <v>1428</v>
+      </c>
+      <c r="BC9">
+        <v>1730</v>
+      </c>
+      <c r="BD9">
+        <v>2026</v>
+      </c>
+      <c r="BE9">
+        <v>2225</v>
+      </c>
+      <c r="BF9">
+        <v>2405</v>
+      </c>
+      <c r="BG9">
+        <v>2868</v>
+      </c>
+      <c r="BH9">
+        <v>3040</v>
+      </c>
+      <c r="BI9">
+        <v>3214</v>
+      </c>
+      <c r="BJ9">
+        <v>191</v>
+      </c>
+      <c r="BK9">
+        <v>381</v>
+      </c>
+      <c r="BL9">
+        <v>852</v>
+      </c>
+      <c r="BM9">
+        <v>1041</v>
+      </c>
+      <c r="BN9">
+        <v>1499</v>
+      </c>
+      <c r="BO9">
+        <v>1677</v>
+      </c>
+      <c r="BP9">
+        <v>1838</v>
+      </c>
+      <c r="BQ9">
+        <v>2277</v>
+      </c>
+      <c r="BR9">
+        <v>2461</v>
+      </c>
+      <c r="BS9">
+        <v>2939</v>
+      </c>
+      <c r="BT9">
+        <v>3142</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -3613,6 +4455,657 @@
       </c>
       <c r="AL10">
         <v>3194</v>
+      </c>
+      <c r="AM10">
+        <v>176</v>
+      </c>
+      <c r="AN10">
+        <v>345</v>
+      </c>
+      <c r="AO10">
+        <v>787</v>
+      </c>
+      <c r="AP10">
+        <v>965</v>
+      </c>
+      <c r="AQ10">
+        <v>1152</v>
+      </c>
+      <c r="AR10">
+        <v>1613</v>
+      </c>
+      <c r="AS10">
+        <v>1798</v>
+      </c>
+      <c r="AT10">
+        <v>2202</v>
+      </c>
+      <c r="AU10">
+        <v>2549</v>
+      </c>
+      <c r="AV10">
+        <v>2989</v>
+      </c>
+      <c r="AW10">
+        <v>3174</v>
+      </c>
+      <c r="AX10">
+        <v>187</v>
+      </c>
+      <c r="AY10">
+        <v>363</v>
+      </c>
+      <c r="AZ10">
+        <v>814</v>
+      </c>
+      <c r="BA10">
+        <v>1099</v>
+      </c>
+      <c r="BB10">
+        <v>1428</v>
+      </c>
+      <c r="BC10">
+        <v>1730</v>
+      </c>
+      <c r="BD10">
+        <v>2026</v>
+      </c>
+      <c r="BE10">
+        <v>2223</v>
+      </c>
+      <c r="BF10">
+        <v>2402</v>
+      </c>
+      <c r="BG10">
+        <v>2868</v>
+      </c>
+      <c r="BH10">
+        <v>3039</v>
+      </c>
+      <c r="BI10">
+        <v>3211</v>
+      </c>
+      <c r="BJ10">
+        <v>189</v>
+      </c>
+      <c r="BK10">
+        <v>379</v>
+      </c>
+      <c r="BL10">
+        <v>852</v>
+      </c>
+      <c r="BM10">
+        <v>1039</v>
+      </c>
+      <c r="BN10">
+        <v>1499</v>
+      </c>
+      <c r="BO10">
+        <v>1675</v>
+      </c>
+      <c r="BP10">
+        <v>1837</v>
+      </c>
+      <c r="BQ10">
+        <v>2277</v>
+      </c>
+      <c r="BR10">
+        <v>2458</v>
+      </c>
+      <c r="BS10">
+        <v>2939</v>
+      </c>
+      <c r="BT10">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>307</v>
+      </c>
+      <c r="E2">
+        <v>535</v>
+      </c>
+      <c r="F2">
+        <v>773</v>
+      </c>
+      <c r="G2">
+        <v>1010</v>
+      </c>
+      <c r="H2">
+        <v>1251</v>
+      </c>
+      <c r="I2">
+        <v>1467</v>
+      </c>
+      <c r="J2">
+        <v>1724</v>
+      </c>
+      <c r="K2">
+        <v>1938</v>
+      </c>
+      <c r="L2">
+        <v>2186</v>
+      </c>
+      <c r="M2">
+        <v>2402</v>
+      </c>
+      <c r="N2">
+        <v>2596</v>
+      </c>
+      <c r="O2">
+        <v>2846</v>
+      </c>
+      <c r="P2">
+        <v>3079</v>
+      </c>
+      <c r="Q2">
+        <v>3294</v>
+      </c>
+      <c r="R2">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>307</v>
+      </c>
+      <c r="E3">
+        <v>535</v>
+      </c>
+      <c r="F3">
+        <v>773</v>
+      </c>
+      <c r="G3">
+        <v>989</v>
+      </c>
+      <c r="H3">
+        <v>1251</v>
+      </c>
+      <c r="I3">
+        <v>1467</v>
+      </c>
+      <c r="J3">
+        <v>1724</v>
+      </c>
+      <c r="K3">
+        <v>1938</v>
+      </c>
+      <c r="L3">
+        <v>2186</v>
+      </c>
+      <c r="M3">
+        <v>2402</v>
+      </c>
+      <c r="N3">
+        <v>2596</v>
+      </c>
+      <c r="O3">
+        <v>2846</v>
+      </c>
+      <c r="P3">
+        <v>3079</v>
+      </c>
+      <c r="Q3">
+        <v>3294</v>
+      </c>
+      <c r="R3">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>305</v>
+      </c>
+      <c r="E4">
+        <v>539</v>
+      </c>
+      <c r="F4">
+        <v>772</v>
+      </c>
+      <c r="G4">
+        <v>1009</v>
+      </c>
+      <c r="H4">
+        <v>1249</v>
+      </c>
+      <c r="I4">
+        <v>1484</v>
+      </c>
+      <c r="J4">
+        <v>1734</v>
+      </c>
+      <c r="K4">
+        <v>1958</v>
+      </c>
+      <c r="L4">
+        <v>2185</v>
+      </c>
+      <c r="M4">
+        <v>2401</v>
+      </c>
+      <c r="N4">
+        <v>2618</v>
+      </c>
+      <c r="O4">
+        <v>2844</v>
+      </c>
+      <c r="P4">
+        <v>3077</v>
+      </c>
+      <c r="Q4">
+        <v>3313</v>
+      </c>
+      <c r="R4">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>347</v>
+      </c>
+      <c r="E5">
+        <v>575</v>
+      </c>
+      <c r="F5">
+        <v>813</v>
+      </c>
+      <c r="G5">
+        <v>1052</v>
+      </c>
+      <c r="H5">
+        <v>1291</v>
+      </c>
+      <c r="I5">
+        <v>1526</v>
+      </c>
+      <c r="J5">
+        <v>1771</v>
+      </c>
+      <c r="K5">
+        <v>2002</v>
+      </c>
+      <c r="L5">
+        <v>2222</v>
+      </c>
+      <c r="M5">
+        <v>2438</v>
+      </c>
+      <c r="N5">
+        <v>2665</v>
+      </c>
+      <c r="O5">
+        <v>2889</v>
+      </c>
+      <c r="P5">
+        <v>3122</v>
+      </c>
+      <c r="Q5">
+        <v>3357</v>
+      </c>
+      <c r="R5">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>115</v>
+      </c>
+      <c r="D6">
+        <v>347</v>
+      </c>
+      <c r="E6">
+        <v>575</v>
+      </c>
+      <c r="F6">
+        <v>813</v>
+      </c>
+      <c r="G6">
+        <v>1052</v>
+      </c>
+      <c r="H6">
+        <v>1291</v>
+      </c>
+      <c r="I6">
+        <v>1526</v>
+      </c>
+      <c r="J6">
+        <v>1771</v>
+      </c>
+      <c r="K6">
+        <v>2002</v>
+      </c>
+      <c r="L6">
+        <v>2222</v>
+      </c>
+      <c r="M6">
+        <v>2438</v>
+      </c>
+      <c r="N6">
+        <v>2665</v>
+      </c>
+      <c r="O6">
+        <v>2889</v>
+      </c>
+      <c r="P6">
+        <v>3122</v>
+      </c>
+      <c r="Q6">
+        <v>3357</v>
+      </c>
+      <c r="R6">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>121</v>
+      </c>
+      <c r="D7">
+        <v>359</v>
+      </c>
+      <c r="E7">
+        <v>580</v>
+      </c>
+      <c r="F7">
+        <v>824</v>
+      </c>
+      <c r="G7">
+        <v>1080</v>
+      </c>
+      <c r="H7">
+        <v>1303</v>
+      </c>
+      <c r="I7">
+        <v>1536</v>
+      </c>
+      <c r="J7">
+        <v>1784</v>
+      </c>
+      <c r="K7">
+        <v>2008</v>
+      </c>
+      <c r="L7">
+        <v>2248</v>
+      </c>
+      <c r="M7">
+        <v>2465</v>
+      </c>
+      <c r="N7">
+        <v>2672</v>
+      </c>
+      <c r="O7">
+        <v>2906</v>
+      </c>
+      <c r="P7">
+        <v>3138</v>
+      </c>
+      <c r="Q7">
+        <v>3390</v>
+      </c>
+      <c r="R7">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>324</v>
+      </c>
+      <c r="E8">
+        <v>553</v>
+      </c>
+      <c r="F8">
+        <v>789</v>
+      </c>
+      <c r="G8">
+        <v>1029</v>
+      </c>
+      <c r="H8">
+        <v>1269</v>
+      </c>
+      <c r="I8">
+        <v>1504</v>
+      </c>
+      <c r="J8">
+        <v>1747</v>
+      </c>
+      <c r="K8">
+        <v>1977</v>
+      </c>
+      <c r="L8">
+        <v>2201</v>
+      </c>
+      <c r="M8">
+        <v>2417</v>
+      </c>
+      <c r="N8">
+        <v>2641</v>
+      </c>
+      <c r="O8">
+        <v>2865</v>
+      </c>
+      <c r="P8">
+        <v>3098</v>
+      </c>
+      <c r="Q8">
+        <v>3334</v>
+      </c>
+      <c r="R8">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <v>324</v>
+      </c>
+      <c r="E9">
+        <v>553</v>
+      </c>
+      <c r="F9">
+        <v>789</v>
+      </c>
+      <c r="G9">
+        <v>1029</v>
+      </c>
+      <c r="H9">
+        <v>1269</v>
+      </c>
+      <c r="I9">
+        <v>1504</v>
+      </c>
+      <c r="J9">
+        <v>1747</v>
+      </c>
+      <c r="K9">
+        <v>1977</v>
+      </c>
+      <c r="L9">
+        <v>2201</v>
+      </c>
+      <c r="M9">
+        <v>2417</v>
+      </c>
+      <c r="N9">
+        <v>2641</v>
+      </c>
+      <c r="O9">
+        <v>2865</v>
+      </c>
+      <c r="P9">
+        <v>3098</v>
+      </c>
+      <c r="Q9">
+        <v>3334</v>
+      </c>
+      <c r="R9">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>93</v>
+      </c>
+      <c r="D10">
+        <v>326</v>
+      </c>
+      <c r="E10">
+        <v>552</v>
+      </c>
+      <c r="F10">
+        <v>789</v>
+      </c>
+      <c r="G10">
+        <v>1029</v>
+      </c>
+      <c r="H10">
+        <v>1269</v>
+      </c>
+      <c r="I10">
+        <v>1501</v>
+      </c>
+      <c r="J10">
+        <v>1746</v>
+      </c>
+      <c r="K10">
+        <v>1978</v>
+      </c>
+      <c r="L10">
+        <v>2201</v>
+      </c>
+      <c r="M10">
+        <v>2417</v>
+      </c>
+      <c r="N10">
+        <v>2640</v>
+      </c>
+      <c r="O10">
+        <v>2865</v>
+      </c>
+      <c r="P10">
+        <v>3098</v>
+      </c>
+      <c r="Q10">
+        <v>3332</v>
+      </c>
+      <c r="R10">
+        <v>3565</v>
       </c>
     </row>
   </sheetData>

--- a/特征点检验结果.xlsx
+++ b/特征点检验结果.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="100m-normal beat" sheetId="1" r:id="rId1"/>
     <sheet name="106m-V" sheetId="2" r:id="rId2"/>
     <sheet name="109m-L" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>10s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +112,42 @@
   </si>
   <si>
     <t>20s为间隔采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-3617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3813-7412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7584-11183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11200-14799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14800-18399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18500-22099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20s为间隔采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.989418924836112, 0.965836300358447, 1, 1, 1, 0.996714129244250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.996943685541917, 0.997319834602258, 0.996857787283415, 0.996008293835141, 0.997215057223669, 0.986972485193228</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +500,7 @@
   <dimension ref="A1:BX20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2543,45 +2580,720 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>361</v>
+      </c>
+      <c r="E12">
+        <v>654</v>
+      </c>
+      <c r="F12">
+        <v>937</v>
+      </c>
+      <c r="G12">
+        <v>1223</v>
+      </c>
+      <c r="H12">
+        <v>1506</v>
+      </c>
+      <c r="I12">
+        <v>1801</v>
+      </c>
+      <c r="J12">
+        <v>2036</v>
+      </c>
+      <c r="K12">
+        <v>2393</v>
+      </c>
+      <c r="L12">
+        <v>2697</v>
+      </c>
+      <c r="M12">
+        <v>2990</v>
+      </c>
+      <c r="N12">
+        <v>3274</v>
+      </c>
+      <c r="O12">
+        <v>3552</v>
+      </c>
+      <c r="P12">
+        <v>3854</v>
+      </c>
+      <c r="Q12">
+        <v>4161</v>
+      </c>
+      <c r="R12">
+        <v>4457</v>
+      </c>
+      <c r="S12">
+        <v>4756</v>
+      </c>
+      <c r="T12">
+        <v>5052</v>
+      </c>
+      <c r="U12">
+        <v>5338</v>
+      </c>
+      <c r="V12">
+        <v>5623</v>
+      </c>
+      <c r="W12">
+        <v>5910</v>
+      </c>
+      <c r="X12">
+        <v>6205</v>
+      </c>
+      <c r="Y12">
+        <v>6517</v>
+      </c>
+      <c r="Z12">
+        <v>6814</v>
+      </c>
+      <c r="AA12">
+        <v>7097</v>
+      </c>
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="C13">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>361</v>
+      </c>
+      <c r="E13">
+        <v>654</v>
+      </c>
+      <c r="F13">
+        <v>937</v>
+      </c>
+      <c r="G13">
+        <v>1223</v>
+      </c>
+      <c r="H13">
+        <v>1506</v>
+      </c>
+      <c r="I13">
+        <v>1801</v>
+      </c>
+      <c r="J13">
+        <v>2036</v>
+      </c>
+      <c r="K13">
+        <v>2393</v>
+      </c>
+      <c r="L13">
+        <v>2697</v>
+      </c>
+      <c r="M13">
+        <v>2990</v>
+      </c>
+      <c r="N13">
+        <v>3274</v>
+      </c>
+      <c r="O13">
+        <v>3552</v>
+      </c>
+      <c r="P13">
+        <v>3854</v>
+      </c>
+      <c r="Q13">
+        <v>4161</v>
+      </c>
+      <c r="R13">
+        <v>4457</v>
+      </c>
+      <c r="S13">
+        <v>4756</v>
+      </c>
+      <c r="T13">
+        <v>5052</v>
+      </c>
+      <c r="U13">
+        <v>5338</v>
+      </c>
+      <c r="V13">
+        <v>5623</v>
+      </c>
+      <c r="W13">
+        <v>5910</v>
+      </c>
+      <c r="X13">
+        <v>6205</v>
+      </c>
+      <c r="Y13">
+        <v>6517</v>
+      </c>
+      <c r="Z13">
+        <v>6814</v>
+      </c>
+      <c r="AA13">
+        <v>7097</v>
+      </c>
     </row>
     <row r="14" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>346</v>
+      </c>
+      <c r="E14">
+        <v>644</v>
+      </c>
+      <c r="F14">
+        <v>931</v>
+      </c>
+      <c r="G14">
+        <v>1210</v>
+      </c>
+      <c r="H14">
+        <v>1499</v>
+      </c>
+      <c r="I14">
+        <v>1786</v>
+      </c>
+      <c r="J14">
+        <v>2027</v>
+      </c>
+      <c r="K14">
+        <v>2383</v>
+      </c>
+      <c r="L14">
+        <v>2693</v>
+      </c>
+      <c r="M14">
+        <v>2981</v>
+      </c>
+      <c r="N14">
+        <v>3262</v>
+      </c>
+      <c r="O14">
+        <v>3538</v>
+      </c>
+      <c r="P14">
+        <v>3844</v>
+      </c>
+      <c r="Q14">
+        <v>4145</v>
+      </c>
+      <c r="R14">
+        <v>4453</v>
+      </c>
+      <c r="S14">
+        <v>4747</v>
+      </c>
+      <c r="T14">
+        <v>5045</v>
+      </c>
+      <c r="U14">
+        <v>5326</v>
+      </c>
+      <c r="V14">
+        <v>5609</v>
+      </c>
+      <c r="W14">
+        <v>5900</v>
+      </c>
+      <c r="X14">
+        <v>6197</v>
+      </c>
+      <c r="Y14">
+        <v>6508</v>
+      </c>
+      <c r="Z14">
+        <v>6809</v>
+      </c>
+      <c r="AA14">
+        <v>7086</v>
+      </c>
     </row>
     <row r="15" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>380</v>
+      </c>
+      <c r="E15">
+        <v>670</v>
+      </c>
+      <c r="F15">
+        <v>954</v>
+      </c>
+      <c r="G15">
+        <v>1239</v>
+      </c>
+      <c r="H15">
+        <v>1522</v>
+      </c>
+      <c r="I15">
+        <v>1817</v>
+      </c>
+      <c r="J15">
+        <v>2052</v>
+      </c>
+      <c r="K15">
+        <v>2413</v>
+      </c>
+      <c r="L15">
+        <v>2713</v>
+      </c>
+      <c r="M15">
+        <v>3005</v>
+      </c>
+      <c r="N15">
+        <v>3290</v>
+      </c>
+      <c r="O15">
+        <v>3568</v>
+      </c>
+      <c r="P15">
+        <v>3870</v>
+      </c>
+      <c r="Q15">
+        <v>4178</v>
+      </c>
+      <c r="R15">
+        <v>4474</v>
+      </c>
+      <c r="S15">
+        <v>4773</v>
+      </c>
+      <c r="T15">
+        <v>5068</v>
+      </c>
+      <c r="U15">
+        <v>5354</v>
+      </c>
+      <c r="V15">
+        <v>5644</v>
+      </c>
+      <c r="W15">
+        <v>5926</v>
+      </c>
+      <c r="X15">
+        <v>6222</v>
+      </c>
+      <c r="Y15">
+        <v>6535</v>
+      </c>
+      <c r="Z15">
+        <v>6832</v>
+      </c>
+      <c r="AA15">
+        <v>7113</v>
+      </c>
     </row>
     <row r="16" spans="1:76" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>2</v>
       </c>
+      <c r="C16">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>380</v>
+      </c>
+      <c r="E16">
+        <v>670</v>
+      </c>
+      <c r="F16">
+        <v>954</v>
+      </c>
+      <c r="G16">
+        <v>1239</v>
+      </c>
+      <c r="H16">
+        <v>1522</v>
+      </c>
+      <c r="I16">
+        <v>1817</v>
+      </c>
+      <c r="J16">
+        <v>2052</v>
+      </c>
+      <c r="K16">
+        <v>2413</v>
+      </c>
+      <c r="L16">
+        <v>2713</v>
+      </c>
+      <c r="M16">
+        <v>3005</v>
+      </c>
+      <c r="N16">
+        <v>3290</v>
+      </c>
+      <c r="O16">
+        <v>3568</v>
+      </c>
+      <c r="P16">
+        <v>3870</v>
+      </c>
+      <c r="Q16">
+        <v>4178</v>
+      </c>
+      <c r="R16">
+        <v>4474</v>
+      </c>
+      <c r="S16">
+        <v>4773</v>
+      </c>
+      <c r="T16">
+        <v>5068</v>
+      </c>
+      <c r="U16">
+        <v>5354</v>
+      </c>
+      <c r="V16">
+        <v>5644</v>
+      </c>
+      <c r="W16">
+        <v>5926</v>
+      </c>
+      <c r="X16">
+        <v>6222</v>
+      </c>
+      <c r="Y16">
+        <v>6535</v>
+      </c>
+      <c r="Z16">
+        <v>6832</v>
+      </c>
+      <c r="AA16">
+        <v>7113</v>
+      </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>3</v>
       </c>
+      <c r="C17">
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <v>388</v>
+      </c>
+      <c r="E17">
+        <v>675</v>
+      </c>
+      <c r="F17">
+        <v>962</v>
+      </c>
+      <c r="G17">
+        <v>1249</v>
+      </c>
+      <c r="H17">
+        <v>1533</v>
+      </c>
+      <c r="I17">
+        <v>1824</v>
+      </c>
+      <c r="J17">
+        <v>2060</v>
+      </c>
+      <c r="K17">
+        <v>2420</v>
+      </c>
+      <c r="L17">
+        <v>2721</v>
+      </c>
+      <c r="M17">
+        <v>3012</v>
+      </c>
+      <c r="N17">
+        <v>3297</v>
+      </c>
+      <c r="O17">
+        <v>3577</v>
+      </c>
+      <c r="P17">
+        <v>3878</v>
+      </c>
+      <c r="Q17">
+        <v>4185</v>
+      </c>
+      <c r="R17">
+        <v>4481</v>
+      </c>
+      <c r="S17">
+        <v>4780</v>
+      </c>
+      <c r="T17">
+        <v>5077</v>
+      </c>
+      <c r="U17">
+        <v>5359</v>
+      </c>
+      <c r="V17">
+        <v>5652</v>
+      </c>
+      <c r="W17">
+        <v>5934</v>
+      </c>
+      <c r="X17">
+        <v>6230</v>
+      </c>
+      <c r="Y17">
+        <v>6542</v>
+      </c>
+      <c r="Z17">
+        <v>6841</v>
+      </c>
+      <c r="AA17">
+        <v>7120</v>
+      </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>4</v>
       </c>
+      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <v>371</v>
+      </c>
+      <c r="E18">
+        <v>664</v>
+      </c>
+      <c r="F18">
+        <v>948</v>
+      </c>
+      <c r="G18">
+        <v>1232</v>
+      </c>
+      <c r="H18">
+        <v>1516</v>
+      </c>
+      <c r="I18">
+        <v>1811</v>
+      </c>
+      <c r="J18">
+        <v>2046</v>
+      </c>
+      <c r="K18">
+        <v>2404</v>
+      </c>
+      <c r="L18">
+        <v>2707</v>
+      </c>
+      <c r="M18">
+        <v>2999</v>
+      </c>
+      <c r="N18">
+        <v>3284</v>
+      </c>
+      <c r="O18">
+        <v>3561</v>
+      </c>
+      <c r="P18">
+        <v>3864</v>
+      </c>
+      <c r="Q18">
+        <v>4171</v>
+      </c>
+      <c r="R18">
+        <v>4467</v>
+      </c>
+      <c r="S18">
+        <v>4766</v>
+      </c>
+      <c r="T18">
+        <v>5061</v>
+      </c>
+      <c r="U18">
+        <v>5347</v>
+      </c>
+      <c r="V18">
+        <v>5635</v>
+      </c>
+      <c r="W18">
+        <v>5919</v>
+      </c>
+      <c r="X18">
+        <v>6215</v>
+      </c>
+      <c r="Y18">
+        <v>6528</v>
+      </c>
+      <c r="Z18">
+        <v>6825</v>
+      </c>
+      <c r="AA18">
+        <v>7107</v>
+      </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>12</v>
       </c>
+      <c r="C19">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>371</v>
+      </c>
+      <c r="E19">
+        <v>664</v>
+      </c>
+      <c r="F19">
+        <v>948</v>
+      </c>
+      <c r="G19">
+        <v>1232</v>
+      </c>
+      <c r="H19">
+        <v>1516</v>
+      </c>
+      <c r="I19">
+        <v>1811</v>
+      </c>
+      <c r="J19">
+        <v>2046</v>
+      </c>
+      <c r="K19">
+        <v>2404</v>
+      </c>
+      <c r="L19">
+        <v>2707</v>
+      </c>
+      <c r="M19">
+        <v>2999</v>
+      </c>
+      <c r="N19">
+        <v>3284</v>
+      </c>
+      <c r="O19">
+        <v>3561</v>
+      </c>
+      <c r="P19">
+        <v>3864</v>
+      </c>
+      <c r="Q19">
+        <v>4171</v>
+      </c>
+      <c r="R19">
+        <v>4467</v>
+      </c>
+      <c r="S19">
+        <v>4766</v>
+      </c>
+      <c r="T19">
+        <v>5061</v>
+      </c>
+      <c r="U19">
+        <v>5347</v>
+      </c>
+      <c r="V19">
+        <v>5635</v>
+      </c>
+      <c r="W19">
+        <v>5919</v>
+      </c>
+      <c r="X19">
+        <v>6215</v>
+      </c>
+      <c r="Y19">
+        <v>6528</v>
+      </c>
+      <c r="Z19">
+        <v>6825</v>
+      </c>
+      <c r="AA19">
+        <v>7107</v>
+      </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>5</v>
+      </c>
+      <c r="C20">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>371</v>
+      </c>
+      <c r="E20">
+        <v>664</v>
+      </c>
+      <c r="F20">
+        <v>948</v>
+      </c>
+      <c r="G20">
+        <v>1232</v>
+      </c>
+      <c r="H20">
+        <v>1516</v>
+      </c>
+      <c r="I20">
+        <v>1810</v>
+      </c>
+      <c r="J20">
+        <v>2045</v>
+      </c>
+      <c r="K20">
+        <v>2403</v>
+      </c>
+      <c r="L20">
+        <v>2707</v>
+      </c>
+      <c r="M20">
+        <v>2999</v>
+      </c>
+      <c r="N20">
+        <v>3284</v>
+      </c>
+      <c r="O20">
+        <v>3561</v>
+      </c>
+      <c r="P20">
+        <v>3863</v>
+      </c>
+      <c r="Q20">
+        <v>4172</v>
+      </c>
+      <c r="R20">
+        <v>4467</v>
+      </c>
+      <c r="S20">
+        <v>4765</v>
+      </c>
+      <c r="T20">
+        <v>5061</v>
+      </c>
+      <c r="U20">
+        <v>5347</v>
+      </c>
+      <c r="V20">
+        <v>5634</v>
+      </c>
+      <c r="W20">
+        <v>5920</v>
+      </c>
+      <c r="X20">
+        <v>6215</v>
+      </c>
+      <c r="Y20">
+        <v>6528</v>
+      </c>
+      <c r="Z20">
+        <v>6824</v>
+      </c>
+      <c r="AA20">
+        <v>7107</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +3308,7 @@
   <dimension ref="A1:BT20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4568,45 +5280,666 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
+      <c r="C12">
+        <v>148</v>
+      </c>
+      <c r="D12">
+        <v>602</v>
+      </c>
+      <c r="E12">
+        <v>752</v>
+      </c>
+      <c r="F12">
+        <v>929</v>
+      </c>
+      <c r="G12">
+        <v>1430</v>
+      </c>
+      <c r="H12">
+        <v>1791</v>
+      </c>
+      <c r="I12">
+        <v>1951</v>
+      </c>
+      <c r="J12">
+        <v>2406</v>
+      </c>
+      <c r="K12">
+        <v>2587</v>
+      </c>
+      <c r="L12">
+        <v>2746</v>
+      </c>
+      <c r="M12">
+        <v>3227</v>
+      </c>
+      <c r="N12">
+        <v>3383</v>
+      </c>
+      <c r="O12">
+        <v>3875</v>
+      </c>
+      <c r="P12">
+        <v>4045</v>
+      </c>
+      <c r="Q12">
+        <v>4227</v>
+      </c>
+      <c r="R12">
+        <v>4698</v>
+      </c>
+      <c r="S12">
+        <v>5038</v>
+      </c>
+      <c r="T12">
+        <v>5370</v>
+      </c>
+      <c r="U12">
+        <v>5881</v>
+      </c>
+      <c r="V12">
+        <v>6040</v>
+      </c>
+      <c r="W12">
+        <v>6227</v>
+      </c>
+      <c r="X12">
+        <v>6717</v>
+      </c>
+      <c r="Y12">
+        <v>7019</v>
+      </c>
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="C13">
+        <v>148</v>
+      </c>
+      <c r="D13">
+        <v>602</v>
+      </c>
+      <c r="E13">
+        <v>752</v>
+      </c>
+      <c r="F13">
+        <v>845</v>
+      </c>
+      <c r="G13">
+        <v>1430</v>
+      </c>
+      <c r="H13">
+        <v>1791</v>
+      </c>
+      <c r="I13">
+        <v>1951</v>
+      </c>
+      <c r="J13">
+        <v>2406</v>
+      </c>
+      <c r="K13">
+        <v>2568</v>
+      </c>
+      <c r="L13">
+        <v>2662</v>
+      </c>
+      <c r="M13">
+        <v>3227</v>
+      </c>
+      <c r="N13">
+        <v>3396</v>
+      </c>
+      <c r="O13">
+        <v>3875</v>
+      </c>
+      <c r="P13">
+        <v>4045</v>
+      </c>
+      <c r="Q13">
+        <v>4107</v>
+      </c>
+      <c r="R13">
+        <v>4698</v>
+      </c>
+      <c r="S13">
+        <v>5038</v>
+      </c>
+      <c r="T13">
+        <v>5240</v>
+      </c>
+      <c r="U13">
+        <v>5881</v>
+      </c>
+      <c r="V13">
+        <v>6040</v>
+      </c>
+      <c r="W13">
+        <v>6227</v>
+      </c>
+      <c r="X13">
+        <v>6717</v>
+      </c>
+      <c r="Y13">
+        <v>7019</v>
+      </c>
     </row>
     <row r="14" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="C14">
+        <v>144</v>
+      </c>
+      <c r="D14">
+        <v>597</v>
+      </c>
+      <c r="E14">
+        <v>769</v>
+      </c>
+      <c r="F14">
+        <v>901</v>
+      </c>
+      <c r="G14">
+        <v>1424</v>
+      </c>
+      <c r="H14">
+        <v>1787</v>
+      </c>
+      <c r="I14">
+        <v>1957</v>
+      </c>
+      <c r="J14">
+        <v>2399</v>
+      </c>
+      <c r="K14">
+        <v>2585</v>
+      </c>
+      <c r="L14">
+        <v>2717</v>
+      </c>
+      <c r="M14">
+        <v>3221</v>
+      </c>
+      <c r="N14">
+        <v>3409</v>
+      </c>
+      <c r="O14">
+        <v>3878</v>
+      </c>
+      <c r="P14">
+        <v>4062</v>
+      </c>
+      <c r="Q14">
+        <v>4173</v>
+      </c>
+      <c r="R14">
+        <v>4701</v>
+      </c>
+      <c r="S14">
+        <v>5029</v>
+      </c>
+      <c r="T14">
+        <v>5314</v>
+      </c>
+      <c r="U14">
+        <v>5877</v>
+      </c>
+      <c r="V14">
+        <v>6053</v>
+      </c>
+      <c r="W14">
+        <v>6330</v>
+      </c>
+      <c r="X14">
+        <v>6714</v>
+      </c>
+      <c r="Y14">
+        <v>7026</v>
+      </c>
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>249</v>
+      </c>
+      <c r="D15">
+        <v>619</v>
+      </c>
+      <c r="E15">
+        <v>798</v>
+      </c>
+      <c r="F15">
+        <v>1037</v>
+      </c>
+      <c r="G15">
+        <v>1448</v>
+      </c>
+      <c r="H15">
+        <v>1808</v>
+      </c>
+      <c r="I15">
+        <v>2004</v>
+      </c>
+      <c r="J15">
+        <v>2423</v>
+      </c>
+      <c r="K15">
+        <v>2615</v>
+      </c>
+      <c r="L15">
+        <v>2845</v>
+      </c>
+      <c r="M15">
+        <v>3244</v>
+      </c>
+      <c r="N15">
+        <v>3437</v>
+      </c>
+      <c r="O15">
+        <v>3901</v>
+      </c>
+      <c r="P15">
+        <v>4107</v>
+      </c>
+      <c r="Q15">
+        <v>4329</v>
+      </c>
+      <c r="R15">
+        <v>4745</v>
+      </c>
+      <c r="S15">
+        <v>5056</v>
+      </c>
+      <c r="T15">
+        <v>5478</v>
+      </c>
+      <c r="U15">
+        <v>5898</v>
+      </c>
+      <c r="V15">
+        <v>6087</v>
+      </c>
+      <c r="W15">
+        <v>6291</v>
+      </c>
+      <c r="X15">
+        <v>6732</v>
+      </c>
+      <c r="Y15">
+        <v>7045</v>
+      </c>
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>2</v>
       </c>
+      <c r="C16">
+        <v>234</v>
+      </c>
+      <c r="D16">
+        <v>619</v>
+      </c>
+      <c r="E16">
+        <v>798</v>
+      </c>
+      <c r="F16">
+        <v>1026</v>
+      </c>
+      <c r="G16">
+        <v>1448</v>
+      </c>
+      <c r="H16">
+        <v>1808</v>
+      </c>
+      <c r="I16">
+        <v>2004</v>
+      </c>
+      <c r="J16">
+        <v>2423</v>
+      </c>
+      <c r="K16">
+        <v>2615</v>
+      </c>
+      <c r="L16">
+        <v>2802</v>
+      </c>
+      <c r="M16">
+        <v>3244</v>
+      </c>
+      <c r="N16">
+        <v>3437</v>
+      </c>
+      <c r="O16">
+        <v>3901</v>
+      </c>
+      <c r="P16">
+        <v>4107</v>
+      </c>
+      <c r="Q16">
+        <v>4329</v>
+      </c>
+      <c r="R16">
+        <v>4745</v>
+      </c>
+      <c r="S16">
+        <v>5056</v>
+      </c>
+      <c r="T16">
+        <v>5478</v>
+      </c>
+      <c r="U16">
+        <v>5898</v>
+      </c>
+      <c r="V16">
+        <v>6087</v>
+      </c>
+      <c r="W16">
+        <v>6291</v>
+      </c>
+      <c r="X16">
+        <v>6732</v>
+      </c>
+      <c r="Y16">
+        <v>7045</v>
+      </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>3</v>
       </c>
+      <c r="C17">
+        <v>201</v>
+      </c>
+      <c r="D17">
+        <v>625</v>
+      </c>
+      <c r="E17">
+        <v>803</v>
+      </c>
+      <c r="F17">
+        <v>988</v>
+      </c>
+      <c r="G17">
+        <v>1455</v>
+      </c>
+      <c r="H17">
+        <v>1817</v>
+      </c>
+      <c r="I17">
+        <v>2012</v>
+      </c>
+      <c r="J17">
+        <v>2429</v>
+      </c>
+      <c r="K17">
+        <v>2619</v>
+      </c>
+      <c r="L17">
+        <v>2785</v>
+      </c>
+      <c r="M17">
+        <v>3253</v>
+      </c>
+      <c r="N17">
+        <v>3441</v>
+      </c>
+      <c r="O17">
+        <v>3907</v>
+      </c>
+      <c r="P17">
+        <v>4113</v>
+      </c>
+      <c r="Q17">
+        <v>4291</v>
+      </c>
+      <c r="R17">
+        <v>4730</v>
+      </c>
+      <c r="S17">
+        <v>5062</v>
+      </c>
+      <c r="T17">
+        <v>5449</v>
+      </c>
+      <c r="U17">
+        <v>5905</v>
+      </c>
+      <c r="V17">
+        <v>6096</v>
+      </c>
+      <c r="W17">
+        <v>6269</v>
+      </c>
+      <c r="X17">
+        <v>6740</v>
+      </c>
+      <c r="Y17">
+        <v>7051</v>
+      </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>4</v>
       </c>
+      <c r="C18">
+        <v>176</v>
+      </c>
+      <c r="D18">
+        <v>611</v>
+      </c>
+      <c r="E18">
+        <v>788</v>
+      </c>
+      <c r="F18">
+        <v>954</v>
+      </c>
+      <c r="G18">
+        <v>1440</v>
+      </c>
+      <c r="H18">
+        <v>1801</v>
+      </c>
+      <c r="I18">
+        <v>1992</v>
+      </c>
+      <c r="J18">
+        <v>2415</v>
+      </c>
+      <c r="K18">
+        <v>2604</v>
+      </c>
+      <c r="L18">
+        <v>2771</v>
+      </c>
+      <c r="M18">
+        <v>3237</v>
+      </c>
+      <c r="N18">
+        <v>3424</v>
+      </c>
+      <c r="O18">
+        <v>3892</v>
+      </c>
+      <c r="P18">
+        <v>4086</v>
+      </c>
+      <c r="Q18">
+        <v>4257</v>
+      </c>
+      <c r="R18">
+        <v>4717</v>
+      </c>
+      <c r="S18">
+        <v>5048</v>
+      </c>
+      <c r="T18">
+        <v>5401</v>
+      </c>
+      <c r="U18">
+        <v>5891</v>
+      </c>
+      <c r="V18">
+        <v>6073</v>
+      </c>
+      <c r="W18">
+        <v>6254</v>
+      </c>
+      <c r="X18">
+        <v>6726</v>
+      </c>
+      <c r="Y18">
+        <v>7038</v>
+      </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>12</v>
       </c>
+      <c r="C19">
+        <v>176</v>
+      </c>
+      <c r="D19">
+        <v>611</v>
+      </c>
+      <c r="E19">
+        <v>788</v>
+      </c>
+      <c r="F19">
+        <v>954</v>
+      </c>
+      <c r="G19">
+        <v>1440</v>
+      </c>
+      <c r="H19">
+        <v>1801</v>
+      </c>
+      <c r="I19">
+        <v>1992</v>
+      </c>
+      <c r="J19">
+        <v>2415</v>
+      </c>
+      <c r="K19">
+        <v>2604</v>
+      </c>
+      <c r="L19">
+        <v>2771</v>
+      </c>
+      <c r="M19">
+        <v>3237</v>
+      </c>
+      <c r="N19">
+        <v>3424</v>
+      </c>
+      <c r="O19">
+        <v>3892</v>
+      </c>
+      <c r="P19">
+        <v>4086</v>
+      </c>
+      <c r="Q19">
+        <v>4257</v>
+      </c>
+      <c r="R19">
+        <v>4717</v>
+      </c>
+      <c r="S19">
+        <v>5048</v>
+      </c>
+      <c r="T19">
+        <v>5401</v>
+      </c>
+      <c r="U19">
+        <v>5891</v>
+      </c>
+      <c r="V19">
+        <v>6073</v>
+      </c>
+      <c r="W19">
+        <v>6254</v>
+      </c>
+      <c r="X19">
+        <v>6726</v>
+      </c>
+      <c r="Y19">
+        <v>7038</v>
+      </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>5</v>
+      </c>
+      <c r="C20">
+        <v>175</v>
+      </c>
+      <c r="D20">
+        <v>611</v>
+      </c>
+      <c r="E20">
+        <v>786</v>
+      </c>
+      <c r="F20">
+        <v>957</v>
+      </c>
+      <c r="G20">
+        <v>1440</v>
+      </c>
+      <c r="H20">
+        <v>1801</v>
+      </c>
+      <c r="I20">
+        <v>1991</v>
+      </c>
+      <c r="J20">
+        <v>2416</v>
+      </c>
+      <c r="K20">
+        <v>2602</v>
+      </c>
+      <c r="L20">
+        <v>2772</v>
+      </c>
+      <c r="M20">
+        <v>3236</v>
+      </c>
+      <c r="N20">
+        <v>3422</v>
+      </c>
+      <c r="O20">
+        <v>3893</v>
+      </c>
+      <c r="P20">
+        <v>4084</v>
+      </c>
+      <c r="Q20">
+        <v>4260</v>
+      </c>
+      <c r="R20">
+        <v>4717</v>
+      </c>
+      <c r="S20">
+        <v>5048</v>
+      </c>
+      <c r="T20">
+        <v>5403</v>
+      </c>
+      <c r="U20">
+        <v>5891</v>
+      </c>
+      <c r="V20">
+        <v>6071</v>
+      </c>
+      <c r="W20">
+        <v>6252</v>
+      </c>
+      <c r="X20">
+        <v>6725</v>
+      </c>
+      <c r="Y20">
+        <v>7038</v>
       </c>
     </row>
   </sheetData>
@@ -4618,20 +5951,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:CN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -4654,7 +6005,7 @@
         <v>1251</v>
       </c>
       <c r="I2">
-        <v>1467</v>
+        <v>1485</v>
       </c>
       <c r="J2">
         <v>1724</v>
@@ -4669,7 +6020,7 @@
         <v>2402</v>
       </c>
       <c r="N2">
-        <v>2596</v>
+        <v>2622</v>
       </c>
       <c r="O2">
         <v>2846</v>
@@ -4678,13 +6029,235 @@
         <v>3079</v>
       </c>
       <c r="Q2">
-        <v>3294</v>
+        <v>3274</v>
       </c>
       <c r="R2">
         <v>3550</v>
       </c>
+      <c r="S2">
+        <v>210</v>
+      </c>
+      <c r="T2">
+        <v>435</v>
+      </c>
+      <c r="U2">
+        <v>650</v>
+      </c>
+      <c r="V2">
+        <v>838</v>
+      </c>
+      <c r="W2">
+        <v>1078</v>
+      </c>
+      <c r="X2">
+        <v>1298</v>
+      </c>
+      <c r="Y2">
+        <v>1526</v>
+      </c>
+      <c r="Z2">
+        <v>1758</v>
+      </c>
+      <c r="AA2">
+        <v>1989</v>
+      </c>
+      <c r="AB2">
+        <v>2217</v>
+      </c>
+      <c r="AC2">
+        <v>2433</v>
+      </c>
+      <c r="AD2">
+        <v>2630</v>
+      </c>
+      <c r="AE2">
+        <v>2846</v>
+      </c>
+      <c r="AF2">
+        <v>3087</v>
+      </c>
+      <c r="AG2">
+        <v>3303</v>
+      </c>
+      <c r="AH2">
+        <v>3526</v>
+      </c>
+      <c r="AI2">
+        <v>221</v>
+      </c>
+      <c r="AJ2">
+        <v>466</v>
+      </c>
+      <c r="AK2">
+        <v>690</v>
+      </c>
+      <c r="AL2">
+        <v>911</v>
+      </c>
+      <c r="AM2">
+        <v>1135</v>
+      </c>
+      <c r="AN2">
+        <v>1370</v>
+      </c>
+      <c r="AO2">
+        <v>1594</v>
+      </c>
+      <c r="AP2">
+        <v>1822</v>
+      </c>
+      <c r="AQ2">
+        <v>2058</v>
+      </c>
+      <c r="AR2">
+        <v>2302</v>
+      </c>
+      <c r="AS2">
+        <v>2546</v>
+      </c>
+      <c r="AT2">
+        <v>2788</v>
+      </c>
+      <c r="AU2">
+        <v>3018</v>
+      </c>
+      <c r="AV2">
+        <v>3245</v>
+      </c>
+      <c r="AW2">
+        <v>3474</v>
+      </c>
+      <c r="AX2">
+        <v>97</v>
+      </c>
+      <c r="AY2">
+        <v>330</v>
+      </c>
+      <c r="AZ2">
+        <v>566</v>
+      </c>
+      <c r="BA2">
+        <v>813</v>
+      </c>
+      <c r="BB2">
+        <v>1060</v>
+      </c>
+      <c r="BC2">
+        <v>1306</v>
+      </c>
+      <c r="BD2">
+        <v>1548</v>
+      </c>
+      <c r="BE2">
+        <v>1780</v>
+      </c>
+      <c r="BF2">
+        <v>2011</v>
+      </c>
+      <c r="BG2">
+        <v>2246</v>
+      </c>
+      <c r="BH2">
+        <v>2498</v>
+      </c>
+      <c r="BI2">
+        <v>2711</v>
+      </c>
+      <c r="BJ2">
+        <v>2994</v>
+      </c>
+      <c r="BK2">
+        <v>3245</v>
+      </c>
+      <c r="BL2">
+        <v>3495</v>
+      </c>
+      <c r="BM2">
+        <v>142</v>
+      </c>
+      <c r="BN2">
+        <v>385</v>
+      </c>
+      <c r="BO2">
+        <v>619</v>
+      </c>
+      <c r="BP2">
+        <v>852</v>
+      </c>
+      <c r="BQ2">
+        <v>1099</v>
+      </c>
+      <c r="BR2">
+        <v>1363</v>
+      </c>
+      <c r="BS2">
+        <v>1620</v>
+      </c>
+      <c r="BT2">
+        <v>1868</v>
+      </c>
+      <c r="BU2">
+        <v>2118</v>
+      </c>
+      <c r="BV2">
+        <v>2359</v>
+      </c>
+      <c r="BW2">
+        <v>2606</v>
+      </c>
+      <c r="BX2">
+        <v>2846</v>
+      </c>
+      <c r="BY2">
+        <v>3086</v>
+      </c>
+      <c r="BZ2">
+        <v>3335</v>
+      </c>
+      <c r="CA2">
+        <v>161</v>
+      </c>
+      <c r="CB2">
+        <v>411</v>
+      </c>
+      <c r="CC2">
+        <v>658</v>
+      </c>
+      <c r="CD2">
+        <v>898</v>
+      </c>
+      <c r="CE2">
+        <v>1143</v>
+      </c>
+      <c r="CF2">
+        <v>1390</v>
+      </c>
+      <c r="CG2">
+        <v>1634</v>
+      </c>
+      <c r="CH2">
+        <v>1882</v>
+      </c>
+      <c r="CI2">
+        <v>2149</v>
+      </c>
+      <c r="CJ2">
+        <v>2411</v>
+      </c>
+      <c r="CK2">
+        <v>2663</v>
+      </c>
+      <c r="CL2">
+        <v>2908</v>
+      </c>
+      <c r="CM2">
+        <v>3152</v>
+      </c>
+      <c r="CN2">
+        <v>3394</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -4736,8 +6309,230 @@
       <c r="R3">
         <v>3550</v>
       </c>
+      <c r="S3">
+        <v>210</v>
+      </c>
+      <c r="T3">
+        <v>435</v>
+      </c>
+      <c r="U3">
+        <v>631</v>
+      </c>
+      <c r="V3">
+        <v>838</v>
+      </c>
+      <c r="W3">
+        <v>1078</v>
+      </c>
+      <c r="X3">
+        <v>1298</v>
+      </c>
+      <c r="Y3">
+        <v>1526</v>
+      </c>
+      <c r="Z3">
+        <v>1734</v>
+      </c>
+      <c r="AA3">
+        <v>1989</v>
+      </c>
+      <c r="AB3">
+        <v>2217</v>
+      </c>
+      <c r="AC3">
+        <v>2433</v>
+      </c>
+      <c r="AD3">
+        <v>2630</v>
+      </c>
+      <c r="AE3">
+        <v>2846</v>
+      </c>
+      <c r="AF3">
+        <v>3087</v>
+      </c>
+      <c r="AG3">
+        <v>3303</v>
+      </c>
+      <c r="AH3">
+        <v>3526</v>
+      </c>
+      <c r="AI3">
+        <v>221</v>
+      </c>
+      <c r="AJ3">
+        <v>466</v>
+      </c>
+      <c r="AK3">
+        <v>690</v>
+      </c>
+      <c r="AL3">
+        <v>911</v>
+      </c>
+      <c r="AM3">
+        <v>1111</v>
+      </c>
+      <c r="AN3">
+        <v>1370</v>
+      </c>
+      <c r="AO3">
+        <v>1573</v>
+      </c>
+      <c r="AP3">
+        <v>1822</v>
+      </c>
+      <c r="AQ3">
+        <v>2058</v>
+      </c>
+      <c r="AR3">
+        <v>2302</v>
+      </c>
+      <c r="AS3">
+        <v>2546</v>
+      </c>
+      <c r="AT3">
+        <v>2788</v>
+      </c>
+      <c r="AU3">
+        <v>2997</v>
+      </c>
+      <c r="AV3">
+        <v>3226</v>
+      </c>
+      <c r="AW3">
+        <v>3474</v>
+      </c>
+      <c r="AX3">
+        <v>97</v>
+      </c>
+      <c r="AY3">
+        <v>330</v>
+      </c>
+      <c r="AZ3">
+        <v>566</v>
+      </c>
+      <c r="BA3">
+        <v>813</v>
+      </c>
+      <c r="BB3">
+        <v>1037</v>
+      </c>
+      <c r="BC3">
+        <v>1306</v>
+      </c>
+      <c r="BD3">
+        <v>1524</v>
+      </c>
+      <c r="BE3">
+        <v>1755</v>
+      </c>
+      <c r="BF3">
+        <v>2011</v>
+      </c>
+      <c r="BG3">
+        <v>2246</v>
+      </c>
+      <c r="BH3">
+        <v>2498</v>
+      </c>
+      <c r="BI3">
+        <v>2711</v>
+      </c>
+      <c r="BJ3">
+        <v>2994</v>
+      </c>
+      <c r="BK3">
+        <v>3217</v>
+      </c>
+      <c r="BL3">
+        <v>3495</v>
+      </c>
+      <c r="BM3">
+        <v>142</v>
+      </c>
+      <c r="BN3">
+        <v>385</v>
+      </c>
+      <c r="BO3">
+        <v>619</v>
+      </c>
+      <c r="BP3">
+        <v>852</v>
+      </c>
+      <c r="BQ3">
+        <v>1099</v>
+      </c>
+      <c r="BR3">
+        <v>1363</v>
+      </c>
+      <c r="BS3">
+        <v>1595</v>
+      </c>
+      <c r="BT3">
+        <v>1843</v>
+      </c>
+      <c r="BU3">
+        <v>2118</v>
+      </c>
+      <c r="BV3">
+        <v>2335</v>
+      </c>
+      <c r="BW3">
+        <v>2606</v>
+      </c>
+      <c r="BX3">
+        <v>2846</v>
+      </c>
+      <c r="BY3">
+        <v>3086</v>
+      </c>
+      <c r="BZ3">
+        <v>3335</v>
+      </c>
+      <c r="CA3">
+        <v>139</v>
+      </c>
+      <c r="CB3">
+        <v>411</v>
+      </c>
+      <c r="CC3">
+        <v>658</v>
+      </c>
+      <c r="CD3">
+        <v>878</v>
+      </c>
+      <c r="CE3">
+        <v>1143</v>
+      </c>
+      <c r="CF3">
+        <v>1390</v>
+      </c>
+      <c r="CG3">
+        <v>1634</v>
+      </c>
+      <c r="CH3">
+        <v>1882</v>
+      </c>
+      <c r="CI3">
+        <v>2149</v>
+      </c>
+      <c r="CJ3">
+        <v>2411</v>
+      </c>
+      <c r="CK3">
+        <v>2641</v>
+      </c>
+      <c r="CL3">
+        <v>2885</v>
+      </c>
+      <c r="CM3">
+        <v>3129</v>
+      </c>
+      <c r="CN3">
+        <v>3394</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -4789,8 +6584,230 @@
       <c r="R4">
         <v>3548</v>
       </c>
+      <c r="S4">
+        <v>209</v>
+      </c>
+      <c r="T4">
+        <v>433</v>
+      </c>
+      <c r="U4">
+        <v>649</v>
+      </c>
+      <c r="V4">
+        <v>857</v>
+      </c>
+      <c r="W4">
+        <v>1076</v>
+      </c>
+      <c r="X4">
+        <v>1297</v>
+      </c>
+      <c r="Y4">
+        <v>1525</v>
+      </c>
+      <c r="Z4">
+        <v>1756</v>
+      </c>
+      <c r="AA4">
+        <v>1985</v>
+      </c>
+      <c r="AB4">
+        <v>2213</v>
+      </c>
+      <c r="AC4">
+        <v>2428</v>
+      </c>
+      <c r="AD4">
+        <v>2649</v>
+      </c>
+      <c r="AE4">
+        <v>2865</v>
+      </c>
+      <c r="AF4">
+        <v>3085</v>
+      </c>
+      <c r="AG4">
+        <v>3301</v>
+      </c>
+      <c r="AH4">
+        <v>3524</v>
+      </c>
+      <c r="AI4">
+        <v>220</v>
+      </c>
+      <c r="AJ4">
+        <v>464</v>
+      </c>
+      <c r="AK4">
+        <v>689</v>
+      </c>
+      <c r="AL4">
+        <v>909</v>
+      </c>
+      <c r="AM4">
+        <v>1133</v>
+      </c>
+      <c r="AN4">
+        <v>1375</v>
+      </c>
+      <c r="AO4">
+        <v>1593</v>
+      </c>
+      <c r="AP4">
+        <v>1821</v>
+      </c>
+      <c r="AQ4">
+        <v>2057</v>
+      </c>
+      <c r="AR4">
+        <v>2301</v>
+      </c>
+      <c r="AS4">
+        <v>2545</v>
+      </c>
+      <c r="AT4">
+        <v>2785</v>
+      </c>
+      <c r="AU4">
+        <v>3017</v>
+      </c>
+      <c r="AV4">
+        <v>3244</v>
+      </c>
+      <c r="AW4">
+        <v>3473</v>
+      </c>
+      <c r="AX4">
+        <v>93</v>
+      </c>
+      <c r="AY4">
+        <v>329</v>
+      </c>
+      <c r="AZ4">
+        <v>565</v>
+      </c>
+      <c r="BA4">
+        <v>809</v>
+      </c>
+      <c r="BB4">
+        <v>1057</v>
+      </c>
+      <c r="BC4">
+        <v>1305</v>
+      </c>
+      <c r="BD4">
+        <v>1545</v>
+      </c>
+      <c r="BE4">
+        <v>1777</v>
+      </c>
+      <c r="BF4">
+        <v>2009</v>
+      </c>
+      <c r="BG4">
+        <v>2251</v>
+      </c>
+      <c r="BH4">
+        <v>2497</v>
+      </c>
+      <c r="BI4">
+        <v>2709</v>
+      </c>
+      <c r="BJ4">
+        <v>2993</v>
+      </c>
+      <c r="BK4">
+        <v>3241</v>
+      </c>
+      <c r="BL4">
+        <v>3493</v>
+      </c>
+      <c r="BM4">
+        <v>140</v>
+      </c>
+      <c r="BN4">
+        <v>384</v>
+      </c>
+      <c r="BO4">
+        <v>617</v>
+      </c>
+      <c r="BP4">
+        <v>849</v>
+      </c>
+      <c r="BQ4">
+        <v>1097</v>
+      </c>
+      <c r="BR4">
+        <v>1361</v>
+      </c>
+      <c r="BS4">
+        <v>1617</v>
+      </c>
+      <c r="BT4">
+        <v>1865</v>
+      </c>
+      <c r="BU4">
+        <v>2117</v>
+      </c>
+      <c r="BV4">
+        <v>2357</v>
+      </c>
+      <c r="BW4">
+        <v>2605</v>
+      </c>
+      <c r="BX4">
+        <v>2845</v>
+      </c>
+      <c r="BY4">
+        <v>3084</v>
+      </c>
+      <c r="BZ4">
+        <v>3333</v>
+      </c>
+      <c r="CA4">
+        <v>160</v>
+      </c>
+      <c r="CB4">
+        <v>409</v>
+      </c>
+      <c r="CC4">
+        <v>657</v>
+      </c>
+      <c r="CD4">
+        <v>897</v>
+      </c>
+      <c r="CE4">
+        <v>1141</v>
+      </c>
+      <c r="CF4">
+        <v>1389</v>
+      </c>
+      <c r="CG4">
+        <v>1633</v>
+      </c>
+      <c r="CH4">
+        <v>1881</v>
+      </c>
+      <c r="CI4">
+        <v>2148</v>
+      </c>
+      <c r="CJ4">
+        <v>2418</v>
+      </c>
+      <c r="CK4">
+        <v>2661</v>
+      </c>
+      <c r="CL4">
+        <v>2905</v>
+      </c>
+      <c r="CM4">
+        <v>3149</v>
+      </c>
+      <c r="CN4">
+        <v>3393</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -4842,8 +6859,230 @@
       <c r="R5">
         <v>3591</v>
       </c>
+      <c r="S5">
+        <v>250</v>
+      </c>
+      <c r="T5">
+        <v>473</v>
+      </c>
+      <c r="U5">
+        <v>690</v>
+      </c>
+      <c r="V5">
+        <v>900</v>
+      </c>
+      <c r="W5">
+        <v>1118</v>
+      </c>
+      <c r="X5">
+        <v>1338</v>
+      </c>
+      <c r="Y5">
+        <v>1570</v>
+      </c>
+      <c r="Z5">
+        <v>1804</v>
+      </c>
+      <c r="AA5">
+        <v>2514</v>
+      </c>
+      <c r="AB5">
+        <v>2258</v>
+      </c>
+      <c r="AC5">
+        <v>2493</v>
+      </c>
+      <c r="AD5">
+        <v>2694</v>
+      </c>
+      <c r="AE5">
+        <v>2906</v>
+      </c>
+      <c r="AF5">
+        <v>3128</v>
+      </c>
+      <c r="AG5">
+        <v>3346</v>
+      </c>
+      <c r="AH5">
+        <v>3570</v>
+      </c>
+      <c r="AI5">
+        <v>265</v>
+      </c>
+      <c r="AJ5">
+        <v>506</v>
+      </c>
+      <c r="AK5">
+        <v>731</v>
+      </c>
+      <c r="AL5">
+        <v>951</v>
+      </c>
+      <c r="AM5">
+        <v>1178</v>
+      </c>
+      <c r="AN5">
+        <v>1409</v>
+      </c>
+      <c r="AO5">
+        <v>1636</v>
+      </c>
+      <c r="AP5">
+        <v>1864</v>
+      </c>
+      <c r="AQ5">
+        <v>2101</v>
+      </c>
+      <c r="AR5">
+        <v>2341</v>
+      </c>
+      <c r="AS5">
+        <v>2587</v>
+      </c>
+      <c r="AT5">
+        <v>2831</v>
+      </c>
+      <c r="AU5">
+        <v>3058</v>
+      </c>
+      <c r="AV5">
+        <v>3282</v>
+      </c>
+      <c r="AW5">
+        <v>3514</v>
+      </c>
+      <c r="AX5">
+        <v>130</v>
+      </c>
+      <c r="AY5">
+        <v>373</v>
+      </c>
+      <c r="AZ5">
+        <v>606</v>
+      </c>
+      <c r="BA5">
+        <v>854</v>
+      </c>
+      <c r="BB5">
+        <v>1098</v>
+      </c>
+      <c r="BC5">
+        <v>1345</v>
+      </c>
+      <c r="BD5">
+        <v>1590</v>
+      </c>
+      <c r="BE5">
+        <v>1820</v>
+      </c>
+      <c r="BF5">
+        <v>2050</v>
+      </c>
+      <c r="BG5">
+        <v>2287</v>
+      </c>
+      <c r="BH5">
+        <v>2538</v>
+      </c>
+      <c r="BI5">
+        <v>2748</v>
+      </c>
+      <c r="BJ5">
+        <v>3035</v>
+      </c>
+      <c r="BK5">
+        <v>3288</v>
+      </c>
+      <c r="BL5">
+        <v>3538</v>
+      </c>
+      <c r="BM5">
+        <v>180</v>
+      </c>
+      <c r="BN5">
+        <v>423</v>
+      </c>
+      <c r="BO5">
+        <v>658</v>
+      </c>
+      <c r="BP5">
+        <v>891</v>
+      </c>
+      <c r="BQ5">
+        <v>1144</v>
+      </c>
+      <c r="BR5">
+        <v>1404</v>
+      </c>
+      <c r="BS5">
+        <v>1661</v>
+      </c>
+      <c r="BT5">
+        <v>1908</v>
+      </c>
+      <c r="BU5">
+        <v>2158</v>
+      </c>
+      <c r="BV5">
+        <v>2401</v>
+      </c>
+      <c r="BW5">
+        <v>2648</v>
+      </c>
+      <c r="BX5">
+        <v>2886</v>
+      </c>
+      <c r="BY5">
+        <v>3125</v>
+      </c>
+      <c r="BZ5">
+        <v>3377</v>
+      </c>
+      <c r="CA5">
+        <v>204</v>
+      </c>
+      <c r="CB5">
+        <v>453</v>
+      </c>
+      <c r="CC5">
+        <v>698</v>
+      </c>
+      <c r="CD5">
+        <v>937</v>
+      </c>
+      <c r="CE5">
+        <v>1182</v>
+      </c>
+      <c r="CF5">
+        <v>1428</v>
+      </c>
+      <c r="CG5">
+        <v>1674</v>
+      </c>
+      <c r="CH5">
+        <v>1924</v>
+      </c>
+      <c r="CI5">
+        <v>2193</v>
+      </c>
+      <c r="CJ5">
+        <v>2451</v>
+      </c>
+      <c r="CK5">
+        <v>2702</v>
+      </c>
+      <c r="CL5">
+        <v>2947</v>
+      </c>
+      <c r="CM5">
+        <v>3189</v>
+      </c>
+      <c r="CN5">
+        <v>3434</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -4895,8 +7134,230 @@
       <c r="R6">
         <v>3591</v>
       </c>
+      <c r="S6">
+        <v>250</v>
+      </c>
+      <c r="T6">
+        <v>473</v>
+      </c>
+      <c r="U6">
+        <v>690</v>
+      </c>
+      <c r="V6">
+        <v>900</v>
+      </c>
+      <c r="W6">
+        <v>1118</v>
+      </c>
+      <c r="X6">
+        <v>1338</v>
+      </c>
+      <c r="Y6">
+        <v>1570</v>
+      </c>
+      <c r="Z6">
+        <v>1804</v>
+      </c>
+      <c r="AA6">
+        <v>2032</v>
+      </c>
+      <c r="AB6">
+        <v>2258</v>
+      </c>
+      <c r="AC6">
+        <v>2493</v>
+      </c>
+      <c r="AD6">
+        <v>2694</v>
+      </c>
+      <c r="AE6">
+        <v>2906</v>
+      </c>
+      <c r="AF6">
+        <v>3128</v>
+      </c>
+      <c r="AG6">
+        <v>3346</v>
+      </c>
+      <c r="AH6">
+        <v>3570</v>
+      </c>
+      <c r="AI6">
+        <v>265</v>
+      </c>
+      <c r="AJ6">
+        <v>506</v>
+      </c>
+      <c r="AK6">
+        <v>731</v>
+      </c>
+      <c r="AL6">
+        <v>951</v>
+      </c>
+      <c r="AM6">
+        <v>1178</v>
+      </c>
+      <c r="AN6">
+        <v>1409</v>
+      </c>
+      <c r="AO6">
+        <v>1636</v>
+      </c>
+      <c r="AP6">
+        <v>1864</v>
+      </c>
+      <c r="AQ6">
+        <v>2101</v>
+      </c>
+      <c r="AR6">
+        <v>2341</v>
+      </c>
+      <c r="AS6">
+        <v>2587</v>
+      </c>
+      <c r="AT6">
+        <v>2831</v>
+      </c>
+      <c r="AU6">
+        <v>3058</v>
+      </c>
+      <c r="AV6">
+        <v>3282</v>
+      </c>
+      <c r="AW6">
+        <v>3514</v>
+      </c>
+      <c r="AX6">
+        <v>130</v>
+      </c>
+      <c r="AY6">
+        <v>373</v>
+      </c>
+      <c r="AZ6">
+        <v>606</v>
+      </c>
+      <c r="BA6">
+        <v>854</v>
+      </c>
+      <c r="BB6">
+        <v>1098</v>
+      </c>
+      <c r="BC6">
+        <v>1345</v>
+      </c>
+      <c r="BD6">
+        <v>1590</v>
+      </c>
+      <c r="BE6">
+        <v>1820</v>
+      </c>
+      <c r="BF6">
+        <v>2050</v>
+      </c>
+      <c r="BG6">
+        <v>2287</v>
+      </c>
+      <c r="BH6">
+        <v>2538</v>
+      </c>
+      <c r="BI6">
+        <v>2748</v>
+      </c>
+      <c r="BJ6">
+        <v>3035</v>
+      </c>
+      <c r="BK6">
+        <v>3288</v>
+      </c>
+      <c r="BL6">
+        <v>3538</v>
+      </c>
+      <c r="BM6">
+        <v>180</v>
+      </c>
+      <c r="BN6">
+        <v>423</v>
+      </c>
+      <c r="BO6">
+        <v>658</v>
+      </c>
+      <c r="BP6">
+        <v>891</v>
+      </c>
+      <c r="BQ6">
+        <v>1144</v>
+      </c>
+      <c r="BR6">
+        <v>1404</v>
+      </c>
+      <c r="BS6">
+        <v>1661</v>
+      </c>
+      <c r="BT6">
+        <v>1908</v>
+      </c>
+      <c r="BU6">
+        <v>2158</v>
+      </c>
+      <c r="BV6">
+        <v>2401</v>
+      </c>
+      <c r="BW6">
+        <v>2648</v>
+      </c>
+      <c r="BX6">
+        <v>2886</v>
+      </c>
+      <c r="BY6">
+        <v>3125</v>
+      </c>
+      <c r="BZ6">
+        <v>3377</v>
+      </c>
+      <c r="CA6">
+        <v>204</v>
+      </c>
+      <c r="CB6">
+        <v>453</v>
+      </c>
+      <c r="CC6">
+        <v>698</v>
+      </c>
+      <c r="CD6">
+        <v>937</v>
+      </c>
+      <c r="CE6">
+        <v>1182</v>
+      </c>
+      <c r="CF6">
+        <v>1428</v>
+      </c>
+      <c r="CG6">
+        <v>1674</v>
+      </c>
+      <c r="CH6">
+        <v>1924</v>
+      </c>
+      <c r="CI6">
+        <v>2193</v>
+      </c>
+      <c r="CJ6">
+        <v>2451</v>
+      </c>
+      <c r="CK6">
+        <v>2702</v>
+      </c>
+      <c r="CL6">
+        <v>2947</v>
+      </c>
+      <c r="CM6">
+        <v>3189</v>
+      </c>
+      <c r="CN6">
+        <v>3434</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -4948,8 +7409,230 @@
       <c r="R7">
         <v>3600</v>
       </c>
+      <c r="S7">
+        <v>286</v>
+      </c>
+      <c r="T7">
+        <v>503</v>
+      </c>
+      <c r="U7">
+        <v>720</v>
+      </c>
+      <c r="V7">
+        <v>929</v>
+      </c>
+      <c r="W7">
+        <v>1151</v>
+      </c>
+      <c r="X7">
+        <v>1330</v>
+      </c>
+      <c r="Y7">
+        <v>1600</v>
+      </c>
+      <c r="Z7">
+        <v>1816</v>
+      </c>
+      <c r="AA7">
+        <v>2064</v>
+      </c>
+      <c r="AB7">
+        <v>2287</v>
+      </c>
+      <c r="AC7">
+        <v>2468</v>
+      </c>
+      <c r="AD7">
+        <v>2686</v>
+      </c>
+      <c r="AE7">
+        <v>2936</v>
+      </c>
+      <c r="AF7">
+        <v>3158</v>
+      </c>
+      <c r="AG7">
+        <v>3376</v>
+      </c>
+      <c r="AH7">
+        <v>3599</v>
+      </c>
+      <c r="AI7">
+        <v>296</v>
+      </c>
+      <c r="AJ7">
+        <v>516</v>
+      </c>
+      <c r="AK7">
+        <v>740</v>
+      </c>
+      <c r="AL7">
+        <v>960</v>
+      </c>
+      <c r="AM7">
+        <v>1184</v>
+      </c>
+      <c r="AN7">
+        <v>1417</v>
+      </c>
+      <c r="AO7">
+        <v>1645</v>
+      </c>
+      <c r="AP7">
+        <v>1872</v>
+      </c>
+      <c r="AQ7">
+        <v>2109</v>
+      </c>
+      <c r="AR7">
+        <v>2352</v>
+      </c>
+      <c r="AS7">
+        <v>2597</v>
+      </c>
+      <c r="AT7">
+        <v>2840</v>
+      </c>
+      <c r="AU7">
+        <v>3068</v>
+      </c>
+      <c r="AV7">
+        <v>3292</v>
+      </c>
+      <c r="AW7">
+        <v>3544</v>
+      </c>
+      <c r="AX7">
+        <v>129</v>
+      </c>
+      <c r="AY7">
+        <v>401</v>
+      </c>
+      <c r="AZ7">
+        <v>639</v>
+      </c>
+      <c r="BA7">
+        <v>887</v>
+      </c>
+      <c r="BB7">
+        <v>1108</v>
+      </c>
+      <c r="BC7">
+        <v>1355</v>
+      </c>
+      <c r="BD7">
+        <v>1583</v>
+      </c>
+      <c r="BE7">
+        <v>1830</v>
+      </c>
+      <c r="BF7">
+        <v>2080</v>
+      </c>
+      <c r="BG7">
+        <v>2296</v>
+      </c>
+      <c r="BH7">
+        <v>2548</v>
+      </c>
+      <c r="BI7">
+        <v>2750</v>
+      </c>
+      <c r="BJ7">
+        <v>3045</v>
+      </c>
+      <c r="BK7">
+        <v>3297</v>
+      </c>
+      <c r="BL7">
+        <v>3544</v>
+      </c>
+      <c r="BM7">
+        <v>192</v>
+      </c>
+      <c r="BN7">
+        <v>432</v>
+      </c>
+      <c r="BO7">
+        <v>689</v>
+      </c>
+      <c r="BP7">
+        <v>901</v>
+      </c>
+      <c r="BQ7">
+        <v>1152</v>
+      </c>
+      <c r="BR7">
+        <v>1413</v>
+      </c>
+      <c r="BS7">
+        <v>1672</v>
+      </c>
+      <c r="BT7">
+        <v>1913</v>
+      </c>
+      <c r="BU7">
+        <v>2191</v>
+      </c>
+      <c r="BV7">
+        <v>2412</v>
+      </c>
+      <c r="BW7">
+        <v>2656</v>
+      </c>
+      <c r="BX7">
+        <v>2918</v>
+      </c>
+      <c r="BY7">
+        <v>3153</v>
+      </c>
+      <c r="BZ7">
+        <v>3388</v>
+      </c>
+      <c r="CA7">
+        <v>218</v>
+      </c>
+      <c r="CB7">
+        <v>465</v>
+      </c>
+      <c r="CC7">
+        <v>708</v>
+      </c>
+      <c r="CD7">
+        <v>948</v>
+      </c>
+      <c r="CE7">
+        <v>1214</v>
+      </c>
+      <c r="CF7">
+        <v>1440</v>
+      </c>
+      <c r="CG7">
+        <v>1683</v>
+      </c>
+      <c r="CH7">
+        <v>1935</v>
+      </c>
+      <c r="CI7">
+        <v>2204</v>
+      </c>
+      <c r="CJ7">
+        <v>2460</v>
+      </c>
+      <c r="CK7">
+        <v>2712</v>
+      </c>
+      <c r="CL7">
+        <v>2956</v>
+      </c>
+      <c r="CM7">
+        <v>3218</v>
+      </c>
+      <c r="CN7">
+        <v>3440</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -5001,8 +7684,230 @@
       <c r="R8">
         <v>3569</v>
       </c>
+      <c r="S8">
+        <v>228</v>
+      </c>
+      <c r="T8">
+        <v>452</v>
+      </c>
+      <c r="U8">
+        <v>667</v>
+      </c>
+      <c r="V8">
+        <v>877</v>
+      </c>
+      <c r="W8">
+        <v>1096</v>
+      </c>
+      <c r="X8">
+        <v>1316</v>
+      </c>
+      <c r="Y8">
+        <v>1546</v>
+      </c>
+      <c r="Z8">
+        <v>1779</v>
+      </c>
+      <c r="AA8">
+        <v>2007</v>
+      </c>
+      <c r="AB8">
+        <v>2235</v>
+      </c>
+      <c r="AC8">
+        <v>2449</v>
+      </c>
+      <c r="AD8">
+        <v>2670</v>
+      </c>
+      <c r="AE8">
+        <v>2884</v>
+      </c>
+      <c r="AF8">
+        <v>3105</v>
+      </c>
+      <c r="AG8">
+        <v>3322</v>
+      </c>
+      <c r="AH8">
+        <v>3545</v>
+      </c>
+      <c r="AI8">
+        <v>240</v>
+      </c>
+      <c r="AJ8">
+        <v>484</v>
+      </c>
+      <c r="AK8">
+        <v>710</v>
+      </c>
+      <c r="AL8">
+        <v>929</v>
+      </c>
+      <c r="AM8">
+        <v>1155</v>
+      </c>
+      <c r="AN8">
+        <v>1388</v>
+      </c>
+      <c r="AO8">
+        <v>1614</v>
+      </c>
+      <c r="AP8">
+        <v>1840</v>
+      </c>
+      <c r="AQ8">
+        <v>2078</v>
+      </c>
+      <c r="AR8">
+        <v>2319</v>
+      </c>
+      <c r="AS8">
+        <v>2565</v>
+      </c>
+      <c r="AT8">
+        <v>2808</v>
+      </c>
+      <c r="AU8">
+        <v>3038</v>
+      </c>
+      <c r="AV8">
+        <v>3262</v>
+      </c>
+      <c r="AW8">
+        <v>3492</v>
+      </c>
+      <c r="AX8">
+        <v>112</v>
+      </c>
+      <c r="AY8">
+        <v>350</v>
+      </c>
+      <c r="AZ8">
+        <v>585</v>
+      </c>
+      <c r="BA8">
+        <v>831</v>
+      </c>
+      <c r="BB8">
+        <v>1078</v>
+      </c>
+      <c r="BC8">
+        <v>1324</v>
+      </c>
+      <c r="BD8">
+        <v>1567</v>
+      </c>
+      <c r="BE8">
+        <v>1799</v>
+      </c>
+      <c r="BF8">
+        <v>2030</v>
+      </c>
+      <c r="BG8">
+        <v>2265</v>
+      </c>
+      <c r="BH8">
+        <v>2517</v>
+      </c>
+      <c r="BI8">
+        <v>2726</v>
+      </c>
+      <c r="BJ8">
+        <v>3013</v>
+      </c>
+      <c r="BK8">
+        <v>3264</v>
+      </c>
+      <c r="BL8">
+        <v>3514</v>
+      </c>
+      <c r="BM8">
+        <v>159</v>
+      </c>
+      <c r="BN8">
+        <v>402</v>
+      </c>
+      <c r="BO8">
+        <v>638</v>
+      </c>
+      <c r="BP8">
+        <v>871</v>
+      </c>
+      <c r="BQ8">
+        <v>1119</v>
+      </c>
+      <c r="BR8">
+        <v>1383</v>
+      </c>
+      <c r="BS8">
+        <v>1639</v>
+      </c>
+      <c r="BT8">
+        <v>1887</v>
+      </c>
+      <c r="BU8">
+        <v>2138</v>
+      </c>
+      <c r="BV8">
+        <v>2379</v>
+      </c>
+      <c r="BW8">
+        <v>2625</v>
+      </c>
+      <c r="BX8">
+        <v>2864</v>
+      </c>
+      <c r="BY8">
+        <v>3104</v>
+      </c>
+      <c r="BZ8">
+        <v>3355</v>
+      </c>
+      <c r="CA8">
+        <v>180</v>
+      </c>
+      <c r="CB8">
+        <v>430</v>
+      </c>
+      <c r="CC8">
+        <v>677</v>
+      </c>
+      <c r="CD8">
+        <v>916</v>
+      </c>
+      <c r="CE8">
+        <v>1161</v>
+      </c>
+      <c r="CF8">
+        <v>1409</v>
+      </c>
+      <c r="CG8">
+        <v>1652</v>
+      </c>
+      <c r="CH8">
+        <v>1902</v>
+      </c>
+      <c r="CI8">
+        <v>2169</v>
+      </c>
+      <c r="CJ8">
+        <v>2430</v>
+      </c>
+      <c r="CK8">
+        <v>2681</v>
+      </c>
+      <c r="CL8">
+        <v>2926</v>
+      </c>
+      <c r="CM8">
+        <v>3169</v>
+      </c>
+      <c r="CN8">
+        <v>3411</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -5054,8 +7959,230 @@
       <c r="R9">
         <v>3569</v>
       </c>
+      <c r="S9">
+        <v>228</v>
+      </c>
+      <c r="T9">
+        <v>452</v>
+      </c>
+      <c r="U9">
+        <v>667</v>
+      </c>
+      <c r="V9">
+        <v>877</v>
+      </c>
+      <c r="W9">
+        <v>1096</v>
+      </c>
+      <c r="X9">
+        <v>1316</v>
+      </c>
+      <c r="Y9">
+        <v>1546</v>
+      </c>
+      <c r="Z9">
+        <v>1779</v>
+      </c>
+      <c r="AA9">
+        <v>2007</v>
+      </c>
+      <c r="AB9">
+        <v>2235</v>
+      </c>
+      <c r="AC9">
+        <v>2449</v>
+      </c>
+      <c r="AD9">
+        <v>2670</v>
+      </c>
+      <c r="AE9">
+        <v>2884</v>
+      </c>
+      <c r="AF9">
+        <v>3105</v>
+      </c>
+      <c r="AG9">
+        <v>3322</v>
+      </c>
+      <c r="AH9">
+        <v>3545</v>
+      </c>
+      <c r="AI9">
+        <v>240</v>
+      </c>
+      <c r="AJ9">
+        <v>484</v>
+      </c>
+      <c r="AK9">
+        <v>710</v>
+      </c>
+      <c r="AL9">
+        <v>929</v>
+      </c>
+      <c r="AM9">
+        <v>1155</v>
+      </c>
+      <c r="AN9">
+        <v>1388</v>
+      </c>
+      <c r="AO9">
+        <v>1614</v>
+      </c>
+      <c r="AP9">
+        <v>1840</v>
+      </c>
+      <c r="AQ9">
+        <v>2078</v>
+      </c>
+      <c r="AR9">
+        <v>2319</v>
+      </c>
+      <c r="AS9">
+        <v>2565</v>
+      </c>
+      <c r="AT9">
+        <v>2808</v>
+      </c>
+      <c r="AU9">
+        <v>3038</v>
+      </c>
+      <c r="AV9">
+        <v>3262</v>
+      </c>
+      <c r="AW9">
+        <v>3492</v>
+      </c>
+      <c r="AX9">
+        <v>112</v>
+      </c>
+      <c r="AY9">
+        <v>350</v>
+      </c>
+      <c r="AZ9">
+        <v>585</v>
+      </c>
+      <c r="BA9">
+        <v>831</v>
+      </c>
+      <c r="BB9">
+        <v>1078</v>
+      </c>
+      <c r="BC9">
+        <v>1324</v>
+      </c>
+      <c r="BD9">
+        <v>1567</v>
+      </c>
+      <c r="BE9">
+        <v>1799</v>
+      </c>
+      <c r="BF9">
+        <v>2030</v>
+      </c>
+      <c r="BG9">
+        <v>2265</v>
+      </c>
+      <c r="BH9">
+        <v>2517</v>
+      </c>
+      <c r="BI9">
+        <v>2726</v>
+      </c>
+      <c r="BJ9">
+        <v>3013</v>
+      </c>
+      <c r="BK9">
+        <v>3264</v>
+      </c>
+      <c r="BL9">
+        <v>3514</v>
+      </c>
+      <c r="BM9">
+        <v>159</v>
+      </c>
+      <c r="BN9">
+        <v>402</v>
+      </c>
+      <c r="BO9">
+        <v>638</v>
+      </c>
+      <c r="BP9">
+        <v>871</v>
+      </c>
+      <c r="BQ9">
+        <v>1119</v>
+      </c>
+      <c r="BR9">
+        <v>1383</v>
+      </c>
+      <c r="BS9">
+        <v>1639</v>
+      </c>
+      <c r="BT9">
+        <v>1887</v>
+      </c>
+      <c r="BU9">
+        <v>2138</v>
+      </c>
+      <c r="BV9">
+        <v>2379</v>
+      </c>
+      <c r="BW9">
+        <v>2625</v>
+      </c>
+      <c r="BX9">
+        <v>2864</v>
+      </c>
+      <c r="BY9">
+        <v>3104</v>
+      </c>
+      <c r="BZ9">
+        <v>3355</v>
+      </c>
+      <c r="CA9">
+        <v>180</v>
+      </c>
+      <c r="CB9">
+        <v>430</v>
+      </c>
+      <c r="CC9">
+        <v>677</v>
+      </c>
+      <c r="CD9">
+        <v>916</v>
+      </c>
+      <c r="CE9">
+        <v>1161</v>
+      </c>
+      <c r="CF9">
+        <v>1409</v>
+      </c>
+      <c r="CG9">
+        <v>1652</v>
+      </c>
+      <c r="CH9">
+        <v>1902</v>
+      </c>
+      <c r="CI9">
+        <v>2169</v>
+      </c>
+      <c r="CJ9">
+        <v>2430</v>
+      </c>
+      <c r="CK9">
+        <v>2681</v>
+      </c>
+      <c r="CL9">
+        <v>2926</v>
+      </c>
+      <c r="CM9">
+        <v>3169</v>
+      </c>
+      <c r="CN9">
+        <v>3411</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -5106,6 +8233,1229 @@
       </c>
       <c r="R10">
         <v>3565</v>
+      </c>
+      <c r="S10">
+        <v>229</v>
+      </c>
+      <c r="T10">
+        <v>451</v>
+      </c>
+      <c r="U10">
+        <v>667</v>
+      </c>
+      <c r="V10">
+        <v>876</v>
+      </c>
+      <c r="W10">
+        <v>1096</v>
+      </c>
+      <c r="X10">
+        <v>1315</v>
+      </c>
+      <c r="Y10">
+        <v>1545</v>
+      </c>
+      <c r="Z10">
+        <v>1778</v>
+      </c>
+      <c r="AA10">
+        <v>2007</v>
+      </c>
+      <c r="AB10">
+        <v>2235</v>
+      </c>
+      <c r="AC10">
+        <v>2448</v>
+      </c>
+      <c r="AD10">
+        <v>2669</v>
+      </c>
+      <c r="AE10">
+        <v>2884</v>
+      </c>
+      <c r="AF10">
+        <v>3106</v>
+      </c>
+      <c r="AG10">
+        <v>3322</v>
+      </c>
+      <c r="AH10">
+        <v>3546</v>
+      </c>
+      <c r="AI10">
+        <v>239</v>
+      </c>
+      <c r="AJ10">
+        <v>484</v>
+      </c>
+      <c r="AK10">
+        <v>710</v>
+      </c>
+      <c r="AL10">
+        <v>929</v>
+      </c>
+      <c r="AM10">
+        <v>1155</v>
+      </c>
+      <c r="AN10">
+        <v>1387</v>
+      </c>
+      <c r="AO10">
+        <v>1613</v>
+      </c>
+      <c r="AP10">
+        <v>1841</v>
+      </c>
+      <c r="AQ10">
+        <v>2078</v>
+      </c>
+      <c r="AR10">
+        <v>2320</v>
+      </c>
+      <c r="AS10">
+        <v>2565</v>
+      </c>
+      <c r="AT10">
+        <v>2808</v>
+      </c>
+      <c r="AU10">
+        <v>3037</v>
+      </c>
+      <c r="AV10">
+        <v>3262</v>
+      </c>
+      <c r="AW10">
+        <v>3492</v>
+      </c>
+      <c r="AX10">
+        <v>112</v>
+      </c>
+      <c r="AY10">
+        <v>351</v>
+      </c>
+      <c r="AZ10">
+        <v>584</v>
+      </c>
+      <c r="BA10">
+        <v>832</v>
+      </c>
+      <c r="BB10">
+        <v>1078</v>
+      </c>
+      <c r="BC10">
+        <v>1324</v>
+      </c>
+      <c r="BD10">
+        <v>1566</v>
+      </c>
+      <c r="BE10">
+        <v>1799</v>
+      </c>
+      <c r="BF10">
+        <v>2029</v>
+      </c>
+      <c r="BG10">
+        <v>2265</v>
+      </c>
+      <c r="BH10">
+        <v>2517</v>
+      </c>
+      <c r="BI10">
+        <v>2724</v>
+      </c>
+      <c r="BJ10">
+        <v>3013</v>
+      </c>
+      <c r="BK10">
+        <v>3265</v>
+      </c>
+      <c r="BL10">
+        <v>3515</v>
+      </c>
+      <c r="BM10">
+        <v>160</v>
+      </c>
+      <c r="BN10">
+        <v>402</v>
+      </c>
+      <c r="BO10">
+        <v>638</v>
+      </c>
+      <c r="BP10">
+        <v>871</v>
+      </c>
+      <c r="BQ10">
+        <v>1119</v>
+      </c>
+      <c r="BR10">
+        <v>1382</v>
+      </c>
+      <c r="BS10">
+        <v>1639</v>
+      </c>
+      <c r="BT10">
+        <v>1887</v>
+      </c>
+      <c r="BU10">
+        <v>2137</v>
+      </c>
+      <c r="BV10">
+        <v>2379</v>
+      </c>
+      <c r="BW10">
+        <v>2625</v>
+      </c>
+      <c r="BX10">
+        <v>2864</v>
+      </c>
+      <c r="BY10">
+        <v>3105</v>
+      </c>
+      <c r="BZ10">
+        <v>3356</v>
+      </c>
+      <c r="CA10">
+        <v>181</v>
+      </c>
+      <c r="CB10">
+        <v>430</v>
+      </c>
+      <c r="CC10">
+        <v>677</v>
+      </c>
+      <c r="CD10">
+        <v>916</v>
+      </c>
+      <c r="CE10">
+        <v>1161</v>
+      </c>
+      <c r="CF10">
+        <v>1408</v>
+      </c>
+      <c r="CG10">
+        <v>1653</v>
+      </c>
+      <c r="CH10">
+        <v>1902</v>
+      </c>
+      <c r="CI10">
+        <v>2170</v>
+      </c>
+      <c r="CJ10">
+        <v>2429</v>
+      </c>
+      <c r="CK10">
+        <v>2681</v>
+      </c>
+      <c r="CL10">
+        <v>2925</v>
+      </c>
+      <c r="CM10">
+        <v>3169</v>
+      </c>
+      <c r="CN10">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>307</v>
+      </c>
+      <c r="E12">
+        <v>535</v>
+      </c>
+      <c r="F12">
+        <v>772</v>
+      </c>
+      <c r="G12">
+        <v>1010</v>
+      </c>
+      <c r="H12">
+        <v>1251</v>
+      </c>
+      <c r="I12">
+        <v>1485</v>
+      </c>
+      <c r="J12">
+        <v>1724</v>
+      </c>
+      <c r="K12">
+        <v>1938</v>
+      </c>
+      <c r="L12">
+        <v>2186</v>
+      </c>
+      <c r="M12">
+        <v>2402</v>
+      </c>
+      <c r="N12">
+        <v>2589</v>
+      </c>
+      <c r="O12">
+        <v>2846</v>
+      </c>
+      <c r="P12">
+        <v>3079</v>
+      </c>
+      <c r="Q12">
+        <v>3294</v>
+      </c>
+      <c r="R12">
+        <v>3550</v>
+      </c>
+      <c r="S12">
+        <v>3776</v>
+      </c>
+      <c r="T12">
+        <v>4005</v>
+      </c>
+      <c r="U12">
+        <v>4230</v>
+      </c>
+      <c r="V12">
+        <v>4445</v>
+      </c>
+      <c r="W12">
+        <v>4654</v>
+      </c>
+      <c r="X12">
+        <v>4871</v>
+      </c>
+      <c r="Y12">
+        <v>5093</v>
+      </c>
+      <c r="Z12">
+        <v>5322</v>
+      </c>
+      <c r="AA12">
+        <v>5547</v>
+      </c>
+      <c r="AB12">
+        <v>5783</v>
+      </c>
+      <c r="AC12">
+        <v>6011</v>
+      </c>
+      <c r="AD12">
+        <v>6309</v>
+      </c>
+      <c r="AE12">
+        <v>6446</v>
+      </c>
+      <c r="AF12">
+        <v>6641</v>
+      </c>
+      <c r="AG12">
+        <v>6862</v>
+      </c>
+      <c r="AH12">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>307</v>
+      </c>
+      <c r="E13">
+        <v>535</v>
+      </c>
+      <c r="F13">
+        <v>772</v>
+      </c>
+      <c r="G13">
+        <v>989</v>
+      </c>
+      <c r="H13">
+        <v>1251</v>
+      </c>
+      <c r="I13">
+        <v>1467</v>
+      </c>
+      <c r="J13">
+        <v>1724</v>
+      </c>
+      <c r="K13">
+        <v>1938</v>
+      </c>
+      <c r="L13">
+        <v>2186</v>
+      </c>
+      <c r="M13">
+        <v>2402</v>
+      </c>
+      <c r="N13">
+        <v>2596</v>
+      </c>
+      <c r="O13">
+        <v>2846</v>
+      </c>
+      <c r="P13">
+        <v>3079</v>
+      </c>
+      <c r="Q13">
+        <v>3294</v>
+      </c>
+      <c r="R13">
+        <v>3550</v>
+      </c>
+      <c r="S13">
+        <v>3776</v>
+      </c>
+      <c r="T13">
+        <v>4005</v>
+      </c>
+      <c r="U13">
+        <v>4230</v>
+      </c>
+      <c r="V13">
+        <v>4445</v>
+      </c>
+      <c r="W13">
+        <v>4638</v>
+      </c>
+      <c r="X13">
+        <v>4871</v>
+      </c>
+      <c r="Y13">
+        <v>5093</v>
+      </c>
+      <c r="Z13">
+        <v>5322</v>
+      </c>
+      <c r="AA13">
+        <v>5533</v>
+      </c>
+      <c r="AB13">
+        <v>5783</v>
+      </c>
+      <c r="AC13">
+        <v>6011</v>
+      </c>
+      <c r="AD13">
+        <v>6227</v>
+      </c>
+      <c r="AE13">
+        <v>6446</v>
+      </c>
+      <c r="AF13">
+        <v>6641</v>
+      </c>
+      <c r="AG13">
+        <v>6862</v>
+      </c>
+      <c r="AH13">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>305</v>
+      </c>
+      <c r="E14">
+        <v>539</v>
+      </c>
+      <c r="F14">
+        <v>772</v>
+      </c>
+      <c r="G14">
+        <v>1009</v>
+      </c>
+      <c r="H14">
+        <v>1249</v>
+      </c>
+      <c r="I14">
+        <v>1484</v>
+      </c>
+      <c r="J14">
+        <v>1734</v>
+      </c>
+      <c r="K14">
+        <v>1958</v>
+      </c>
+      <c r="L14">
+        <v>2185</v>
+      </c>
+      <c r="M14">
+        <v>2401</v>
+      </c>
+      <c r="N14">
+        <v>2618</v>
+      </c>
+      <c r="O14">
+        <v>2844</v>
+      </c>
+      <c r="P14">
+        <v>3077</v>
+      </c>
+      <c r="Q14">
+        <v>3313</v>
+      </c>
+      <c r="R14">
+        <v>3548</v>
+      </c>
+      <c r="S14">
+        <v>3772</v>
+      </c>
+      <c r="T14">
+        <v>4001</v>
+      </c>
+      <c r="U14">
+        <v>4229</v>
+      </c>
+      <c r="V14">
+        <v>4444</v>
+      </c>
+      <c r="W14">
+        <v>4653</v>
+      </c>
+      <c r="X14">
+        <v>4869</v>
+      </c>
+      <c r="Y14">
+        <v>5089</v>
+      </c>
+      <c r="Z14">
+        <v>5321</v>
+      </c>
+      <c r="AA14">
+        <v>5553</v>
+      </c>
+      <c r="AB14">
+        <v>5781</v>
+      </c>
+      <c r="AC14">
+        <v>6009</v>
+      </c>
+      <c r="AD14">
+        <v>6225</v>
+      </c>
+      <c r="AE14">
+        <v>6434</v>
+      </c>
+      <c r="AF14">
+        <v>6660</v>
+      </c>
+      <c r="AG14">
+        <v>6881</v>
+      </c>
+      <c r="AH14">
+        <v>7097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <v>347</v>
+      </c>
+      <c r="E15">
+        <v>575</v>
+      </c>
+      <c r="F15">
+        <v>813</v>
+      </c>
+      <c r="G15">
+        <v>1052</v>
+      </c>
+      <c r="H15">
+        <v>1291</v>
+      </c>
+      <c r="I15">
+        <v>1526</v>
+      </c>
+      <c r="J15">
+        <v>1771</v>
+      </c>
+      <c r="K15">
+        <v>2002</v>
+      </c>
+      <c r="L15">
+        <v>2222</v>
+      </c>
+      <c r="M15">
+        <v>2438</v>
+      </c>
+      <c r="N15">
+        <v>2665</v>
+      </c>
+      <c r="O15">
+        <v>2889</v>
+      </c>
+      <c r="P15">
+        <v>3122</v>
+      </c>
+      <c r="Q15">
+        <v>3357</v>
+      </c>
+      <c r="R15">
+        <v>3593</v>
+      </c>
+      <c r="S15">
+        <v>3819</v>
+      </c>
+      <c r="T15">
+        <v>4047</v>
+      </c>
+      <c r="U15">
+        <v>4267</v>
+      </c>
+      <c r="V15">
+        <v>4484</v>
+      </c>
+      <c r="W15">
+        <v>4696</v>
+      </c>
+      <c r="X15">
+        <v>4914</v>
+      </c>
+      <c r="Y15">
+        <v>5131</v>
+      </c>
+      <c r="Z15">
+        <v>5364</v>
+      </c>
+      <c r="AA15">
+        <v>5600</v>
+      </c>
+      <c r="AB15">
+        <v>5826</v>
+      </c>
+      <c r="AC15">
+        <v>6051</v>
+      </c>
+      <c r="AD15">
+        <v>6291</v>
+      </c>
+      <c r="AE15">
+        <v>6490</v>
+      </c>
+      <c r="AF15">
+        <v>6701</v>
+      </c>
+      <c r="AG15">
+        <v>6922</v>
+      </c>
+      <c r="AH15">
+        <v>7139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>115</v>
+      </c>
+      <c r="D16">
+        <v>347</v>
+      </c>
+      <c r="E16">
+        <v>575</v>
+      </c>
+      <c r="F16">
+        <v>813</v>
+      </c>
+      <c r="G16">
+        <v>1052</v>
+      </c>
+      <c r="H16">
+        <v>1291</v>
+      </c>
+      <c r="I16">
+        <v>1526</v>
+      </c>
+      <c r="J16">
+        <v>1771</v>
+      </c>
+      <c r="K16">
+        <v>2002</v>
+      </c>
+      <c r="L16">
+        <v>2222</v>
+      </c>
+      <c r="M16">
+        <v>2438</v>
+      </c>
+      <c r="N16">
+        <v>2665</v>
+      </c>
+      <c r="O16">
+        <v>2889</v>
+      </c>
+      <c r="P16">
+        <v>3122</v>
+      </c>
+      <c r="Q16">
+        <v>3357</v>
+      </c>
+      <c r="R16">
+        <v>3593</v>
+      </c>
+      <c r="S16">
+        <v>3819</v>
+      </c>
+      <c r="T16">
+        <v>4047</v>
+      </c>
+      <c r="U16">
+        <v>4267</v>
+      </c>
+      <c r="V16">
+        <v>4484</v>
+      </c>
+      <c r="W16">
+        <v>4696</v>
+      </c>
+      <c r="X16">
+        <v>4914</v>
+      </c>
+      <c r="Y16">
+        <v>5131</v>
+      </c>
+      <c r="Z16">
+        <v>5364</v>
+      </c>
+      <c r="AA16">
+        <v>5600</v>
+      </c>
+      <c r="AB16">
+        <v>5826</v>
+      </c>
+      <c r="AC16">
+        <v>6051</v>
+      </c>
+      <c r="AD16">
+        <v>6291</v>
+      </c>
+      <c r="AE16">
+        <v>6490</v>
+      </c>
+      <c r="AF16">
+        <v>6701</v>
+      </c>
+      <c r="AG16">
+        <v>6922</v>
+      </c>
+      <c r="AH16">
+        <v>7139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>121</v>
+      </c>
+      <c r="D17">
+        <v>359</v>
+      </c>
+      <c r="E17">
+        <v>580</v>
+      </c>
+      <c r="F17">
+        <v>824</v>
+      </c>
+      <c r="G17">
+        <v>1080</v>
+      </c>
+      <c r="H17">
+        <v>1303</v>
+      </c>
+      <c r="I17">
+        <v>1536</v>
+      </c>
+      <c r="J17">
+        <v>1784</v>
+      </c>
+      <c r="K17">
+        <v>2008</v>
+      </c>
+      <c r="L17">
+        <v>2248</v>
+      </c>
+      <c r="M17">
+        <v>2465</v>
+      </c>
+      <c r="N17">
+        <v>2672</v>
+      </c>
+      <c r="O17">
+        <v>2906</v>
+      </c>
+      <c r="P17">
+        <v>3138</v>
+      </c>
+      <c r="Q17">
+        <v>3390</v>
+      </c>
+      <c r="R17">
+        <v>3623</v>
+      </c>
+      <c r="S17">
+        <v>3849</v>
+      </c>
+      <c r="T17">
+        <v>4079</v>
+      </c>
+      <c r="U17">
+        <v>4279</v>
+      </c>
+      <c r="V17">
+        <v>4513</v>
+      </c>
+      <c r="W17">
+        <v>4704</v>
+      </c>
+      <c r="X17">
+        <v>4920</v>
+      </c>
+      <c r="Y17">
+        <v>5161</v>
+      </c>
+      <c r="Z17">
+        <v>5375</v>
+      </c>
+      <c r="AA17">
+        <v>5608</v>
+      </c>
+      <c r="AB17">
+        <v>5842</v>
+      </c>
+      <c r="AC17">
+        <v>6081</v>
+      </c>
+      <c r="AD17">
+        <v>6264</v>
+      </c>
+      <c r="AE17">
+        <v>6520</v>
+      </c>
+      <c r="AF17">
+        <v>6729</v>
+      </c>
+      <c r="AG17">
+        <v>6952</v>
+      </c>
+      <c r="AH17">
+        <v>7169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>324</v>
+      </c>
+      <c r="E18">
+        <v>553</v>
+      </c>
+      <c r="F18">
+        <v>789</v>
+      </c>
+      <c r="G18">
+        <v>1029</v>
+      </c>
+      <c r="H18">
+        <v>1269</v>
+      </c>
+      <c r="I18">
+        <v>1504</v>
+      </c>
+      <c r="J18">
+        <v>1747</v>
+      </c>
+      <c r="K18">
+        <v>1977</v>
+      </c>
+      <c r="L18">
+        <v>2201</v>
+      </c>
+      <c r="M18">
+        <v>2417</v>
+      </c>
+      <c r="N18">
+        <v>2641</v>
+      </c>
+      <c r="O18">
+        <v>2865</v>
+      </c>
+      <c r="P18">
+        <v>3098</v>
+      </c>
+      <c r="Q18">
+        <v>3334</v>
+      </c>
+      <c r="R18">
+        <v>3569</v>
+      </c>
+      <c r="S18">
+        <v>3795</v>
+      </c>
+      <c r="T18">
+        <v>4023</v>
+      </c>
+      <c r="U18">
+        <v>4247</v>
+      </c>
+      <c r="V18">
+        <v>4462</v>
+      </c>
+      <c r="W18">
+        <v>4673</v>
+      </c>
+      <c r="X18">
+        <v>4890</v>
+      </c>
+      <c r="Y18">
+        <v>5111</v>
+      </c>
+      <c r="Z18">
+        <v>5342</v>
+      </c>
+      <c r="AA18">
+        <v>5574</v>
+      </c>
+      <c r="AB18">
+        <v>5802</v>
+      </c>
+      <c r="AC18">
+        <v>6030</v>
+      </c>
+      <c r="AD18">
+        <v>6244</v>
+      </c>
+      <c r="AE18">
+        <v>6465</v>
+      </c>
+      <c r="AF18">
+        <v>6679</v>
+      </c>
+      <c r="AG18">
+        <v>6900</v>
+      </c>
+      <c r="AH18">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <v>324</v>
+      </c>
+      <c r="E19">
+        <v>553</v>
+      </c>
+      <c r="F19">
+        <v>789</v>
+      </c>
+      <c r="G19">
+        <v>1029</v>
+      </c>
+      <c r="H19">
+        <v>1269</v>
+      </c>
+      <c r="I19">
+        <v>1504</v>
+      </c>
+      <c r="J19">
+        <v>1747</v>
+      </c>
+      <c r="K19">
+        <v>1977</v>
+      </c>
+      <c r="L19">
+        <v>2201</v>
+      </c>
+      <c r="M19">
+        <v>2417</v>
+      </c>
+      <c r="N19">
+        <v>2641</v>
+      </c>
+      <c r="O19">
+        <v>2865</v>
+      </c>
+      <c r="P19">
+        <v>3098</v>
+      </c>
+      <c r="Q19">
+        <v>3334</v>
+      </c>
+      <c r="R19">
+        <v>3569</v>
+      </c>
+      <c r="S19">
+        <v>3795</v>
+      </c>
+      <c r="T19">
+        <v>4023</v>
+      </c>
+      <c r="U19">
+        <v>4247</v>
+      </c>
+      <c r="V19">
+        <v>4462</v>
+      </c>
+      <c r="W19">
+        <v>4673</v>
+      </c>
+      <c r="X19">
+        <v>4890</v>
+      </c>
+      <c r="Y19">
+        <v>5111</v>
+      </c>
+      <c r="Z19">
+        <v>5342</v>
+      </c>
+      <c r="AA19">
+        <v>5574</v>
+      </c>
+      <c r="AB19">
+        <v>5802</v>
+      </c>
+      <c r="AC19">
+        <v>6030</v>
+      </c>
+      <c r="AD19">
+        <v>6244</v>
+      </c>
+      <c r="AE19">
+        <v>6465</v>
+      </c>
+      <c r="AF19">
+        <v>6679</v>
+      </c>
+      <c r="AG19">
+        <v>6900</v>
+      </c>
+      <c r="AH19">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>93</v>
+      </c>
+      <c r="D20">
+        <v>326</v>
+      </c>
+      <c r="E20">
+        <v>553</v>
+      </c>
+      <c r="F20">
+        <v>789</v>
+      </c>
+      <c r="G20">
+        <v>1029</v>
+      </c>
+      <c r="H20">
+        <v>1269</v>
+      </c>
+      <c r="I20">
+        <v>1501</v>
+      </c>
+      <c r="J20">
+        <v>1746</v>
+      </c>
+      <c r="K20">
+        <v>1978</v>
+      </c>
+      <c r="L20">
+        <v>2201</v>
+      </c>
+      <c r="M20">
+        <v>2417</v>
+      </c>
+      <c r="N20">
+        <v>2640</v>
+      </c>
+      <c r="O20">
+        <v>2865</v>
+      </c>
+      <c r="P20">
+        <v>3098</v>
+      </c>
+      <c r="Q20">
+        <v>3332</v>
+      </c>
+      <c r="R20">
+        <v>3565</v>
+      </c>
+      <c r="S20">
+        <v>3794</v>
+      </c>
+      <c r="T20">
+        <v>4023</v>
+      </c>
+      <c r="U20">
+        <v>4246</v>
+      </c>
+      <c r="V20">
+        <v>4461</v>
+      </c>
+      <c r="W20">
+        <v>4672</v>
+      </c>
+      <c r="X20">
+        <v>4891</v>
+      </c>
+      <c r="Y20">
+        <v>5109</v>
+      </c>
+      <c r="Z20">
+        <v>5340</v>
+      </c>
+      <c r="AA20">
+        <v>5573</v>
+      </c>
+      <c r="AB20">
+        <v>5803</v>
+      </c>
+      <c r="AC20">
+        <v>6029</v>
+      </c>
+      <c r="AD20">
+        <v>6243</v>
+      </c>
+      <c r="AE20">
+        <v>6465</v>
+      </c>
+      <c r="AF20">
+        <v>6679</v>
+      </c>
+      <c r="AG20">
+        <v>6900</v>
+      </c>
+      <c r="AH20">
+        <v>7118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>0.98941892483611205</v>
+      </c>
+      <c r="C3">
+        <v>0.96583630035844703</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.99671412924424996</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>0.99694368554191704</v>
+      </c>
+      <c r="C4">
+        <v>0.99731983460225804</v>
+      </c>
+      <c r="D4">
+        <v>0.99685778728341501</v>
+      </c>
+      <c r="E4">
+        <v>0.996008293835141</v>
+      </c>
+      <c r="F4">
+        <v>0.99721505722366899</v>
+      </c>
+      <c r="G4">
+        <v>0.986972485193228</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
